--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DR48"/>
+  <dimension ref="A1:DS48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DI4" workbookViewId="0">
-      <selection activeCell="DO14" sqref="DO14"/>
+      <selection activeCell="DR22" sqref="DR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -639,10 +639,10 @@
     <col min="110" max="110" width="11.625" customWidth="1"/>
     <col min="111" max="117" width="11.625" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="11.625" customWidth="1"/>
-    <col min="119" max="122" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="119" max="123" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122">
+    <row r="1" spans="1:123">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:122">
+    <row r="2" spans="1:123">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -728,7 +728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:122">
+    <row r="3" spans="1:123">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -841,7 +841,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:122">
+    <row r="4" spans="1:123">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -953,7 +953,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:122">
+    <row r="5" spans="1:123">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:122">
+    <row r="6" spans="1:123">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>-403</v>
       </c>
     </row>
-    <row r="7" spans="1:122">
+    <row r="7" spans="1:123">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="8" spans="1:122">
+    <row r="8" spans="1:123">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>-266</v>
       </c>
     </row>
-    <row r="10" spans="1:122">
+    <row r="10" spans="1:123">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:122">
+    <row r="11" spans="1:123">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>381.09999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:122">
+    <row r="13" spans="1:123">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:122">
+    <row r="14" spans="1:123">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:122" ht="42" customHeight="1">
+    <row r="15" spans="1:123" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1928,8 +1928,11 @@
       <c r="DR15" s="4">
         <v>40842</v>
       </c>
+      <c r="DS15" s="4">
+        <v>40843</v>
+      </c>
     </row>
-    <row r="16" spans="1:122">
+    <row r="16" spans="1:123">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:121">
+    <row r="17" spans="1:122">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2191,8 +2194,11 @@
       <c r="DQ17">
         <v>19.2</v>
       </c>
+      <c r="DR17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:121">
+    <row r="18" spans="1:122">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:121">
+    <row r="19" spans="1:122">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="20" spans="1:121">
+    <row r="20" spans="1:122">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="21" spans="1:121">
+    <row r="21" spans="1:122">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2470,8 +2476,11 @@
       <c r="DP21">
         <v>10</v>
       </c>
+      <c r="DR21">
+        <v>66.400000000000006</v>
+      </c>
     </row>
-    <row r="25" spans="1:121">
+    <row r="25" spans="1:122">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2900,7 +2909,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="27" spans="1:121">
+    <row r="27" spans="1:122">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2938,7 +2947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:121">
+    <row r="28" spans="1:122">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:121">
+    <row r="29" spans="1:122">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2996,7 +3005,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:121">
+    <row r="30" spans="1:122">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3044,7 +3053,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:121">
+    <row r="32" spans="1:122">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DS48"/>
+  <dimension ref="A1:DW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DI4" workbookViewId="0">
-      <selection activeCell="DR22" sqref="DR22"/>
+    <sheetView tabSelected="1" topLeftCell="DL4" workbookViewId="0">
+      <selection activeCell="DT21" sqref="DT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -639,10 +639,12 @@
     <col min="110" max="110" width="11.625" customWidth="1"/>
     <col min="111" max="117" width="11.625" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="11.625" customWidth="1"/>
-    <col min="119" max="123" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="119" max="125" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.625" customWidth="1"/>
+    <col min="127" max="127" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123">
+    <row r="1" spans="1:127">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:123">
+    <row r="2" spans="1:127">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -728,7 +730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:123">
+    <row r="3" spans="1:127">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -841,7 +843,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:123">
+    <row r="4" spans="1:127">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -953,7 +955,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:123">
+    <row r="5" spans="1:127">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:123">
+    <row r="6" spans="1:127">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>-403</v>
       </c>
     </row>
-    <row r="7" spans="1:123">
+    <row r="7" spans="1:127">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="8" spans="1:123">
+    <row r="8" spans="1:127">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>-266</v>
       </c>
     </row>
-    <row r="10" spans="1:123">
+    <row r="10" spans="1:127">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:123">
+    <row r="11" spans="1:127">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>381.09999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:123">
+    <row r="13" spans="1:127">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:123">
+    <row r="14" spans="1:127">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1596,8 +1598,14 @@
       <c r="DO14">
         <v>16</v>
       </c>
+      <c r="DU14">
+        <v>16</v>
+      </c>
+      <c r="DW14">
+        <v>17</v>
+      </c>
     </row>
-    <row r="15" spans="1:123" ht="42" customHeight="1">
+    <row r="15" spans="1:127" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1931,8 +1939,18 @@
       <c r="DS15" s="4">
         <v>40843</v>
       </c>
+      <c r="DT15" s="4">
+        <v>40844</v>
+      </c>
+      <c r="DU15" s="4">
+        <v>40845</v>
+      </c>
+      <c r="DV15" s="4"/>
+      <c r="DW15" s="4">
+        <v>40846</v>
+      </c>
     </row>
-    <row r="16" spans="1:123">
+    <row r="16" spans="1:127">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:122">
+    <row r="17" spans="1:127">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2198,7 +2216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:122">
+    <row r="18" spans="1:127">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2316,8 +2334,15 @@
       <c r="DM18">
         <v>20</v>
       </c>
+      <c r="DS18">
+        <v>11</v>
+      </c>
+      <c r="DW18">
+        <f>10.5+4.5+14+5.6+7.5</f>
+        <v>42.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:122">
+    <row r="19" spans="1:127">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2364,8 +2389,11 @@
       <c r="DM19">
         <v>50.7</v>
       </c>
+      <c r="DU19">
+        <v>22.3</v>
+      </c>
     </row>
-    <row r="20" spans="1:122">
+    <row r="20" spans="1:127">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2418,7 +2446,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="21" spans="1:122">
+    <row r="21" spans="1:127">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2508,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:122">
+    <row r="25" spans="1:127">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2793,7 +2821,7 @@
         <v>11.5</v>
       </c>
       <c r="CL25">
-        <f t="shared" ref="CL25:DQ25" si="18">SUM(CL16:CL23)</f>
+        <f t="shared" ref="CL25:DW25" si="18">SUM(CL16:CL23)</f>
         <v>23.2</v>
       </c>
       <c r="CM25">
@@ -2908,8 +2936,32 @@
         <f t="shared" si="18"/>
         <v>48.9</v>
       </c>
+      <c r="DR25">
+        <f t="shared" si="18"/>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="DS25">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="DT25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="DU25">
+        <f t="shared" si="18"/>
+        <v>22.3</v>
+      </c>
+      <c r="DV25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="DW25">
+        <f t="shared" si="18"/>
+        <v>42.1</v>
+      </c>
     </row>
-    <row r="27" spans="1:122">
+    <row r="27" spans="1:127">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2947,7 +2999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:122">
+    <row r="28" spans="1:127">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2976,7 +3028,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:122">
+    <row r="29" spans="1:127">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3005,7 +3057,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:122">
+    <row r="30" spans="1:127">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3053,7 +3105,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:122">
+    <row r="32" spans="1:127">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -588,9 +588,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DW48"/>
+  <dimension ref="A1:DY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DM4" workbookViewId="0">
       <selection activeCell="DT21" sqref="DT21"/>
     </sheetView>
   </sheetViews>
@@ -641,10 +641,10 @@
     <col min="118" max="118" width="11.625" customWidth="1"/>
     <col min="119" max="125" width="11.625" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="11.625" customWidth="1"/>
-    <col min="127" max="127" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:127">
+    <row r="2" spans="1:129">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -730,7 +730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:127">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -843,7 +843,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:127">
+    <row r="4" spans="1:129">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -955,7 +955,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:127">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:127">
+    <row r="6" spans="1:129">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>-403</v>
       </c>
     </row>
-    <row r="7" spans="1:127">
+    <row r="7" spans="1:129">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="8" spans="1:127">
+    <row r="8" spans="1:129">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>-266</v>
       </c>
     </row>
-    <row r="10" spans="1:127">
+    <row r="10" spans="1:129">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:127">
+    <row r="11" spans="1:129">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>381.09999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:127">
+    <row r="13" spans="1:129">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:127">
+    <row r="14" spans="1:129">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:127" ht="42" customHeight="1">
+    <row r="15" spans="1:129" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1949,8 +1949,14 @@
       <c r="DW15" s="4">
         <v>40846</v>
       </c>
+      <c r="DX15" s="4">
+        <v>40847</v>
+      </c>
+      <c r="DY15" s="4">
+        <v>40848</v>
+      </c>
     </row>
-    <row r="16" spans="1:127">
+    <row r="16" spans="1:129">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2070,6 +2076,10 @@
       </c>
       <c r="DO16">
         <v>24</v>
+      </c>
+      <c r="DV16">
+        <f>21+63</f>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:127">
@@ -2507,6 +2517,9 @@
       <c r="DR21">
         <v>66.400000000000006</v>
       </c>
+      <c r="DT21">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:127">
       <c r="A25" t="s">
@@ -2946,7 +2959,7 @@
       </c>
       <c r="DT25">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DU25">
         <f t="shared" si="18"/>
@@ -2954,7 +2967,7 @@
       </c>
       <c r="DV25">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="DW25">
         <f t="shared" si="18"/>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DM4" workbookViewId="0">
-      <selection activeCell="DT21" sqref="DT21"/>
+    <sheetView tabSelected="1" topLeftCell="DM7" workbookViewId="0">
+      <selection activeCell="DX19" sqref="DX19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2082,7 +2082,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:127">
+    <row r="17" spans="1:128">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:127">
+    <row r="18" spans="1:128">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="19" spans="1:127">
+    <row r="19" spans="1:128">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2402,8 +2402,11 @@
       <c r="DU19">
         <v>22.3</v>
       </c>
+      <c r="DX19">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:127">
+    <row r="20" spans="1:128">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="21" spans="1:127">
+    <row r="21" spans="1:128">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:127">
+    <row r="25" spans="1:128">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="27" spans="1:127">
+    <row r="27" spans="1:128">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:127">
+    <row r="28" spans="1:128">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:127">
+    <row r="29" spans="1:128">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:127">
+    <row r="30" spans="1:128">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:127">
+    <row r="32" spans="1:128">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DY48"/>
+  <dimension ref="A1:DZ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DM7" workbookViewId="0">
-      <selection activeCell="DX19" sqref="DX19"/>
+    <sheetView tabSelected="1" topLeftCell="DS7" workbookViewId="0">
+      <selection activeCell="DY15" sqref="DY15:DZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -642,9 +642,10 @@
     <col min="119" max="125" width="11.625" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="11.625" customWidth="1"/>
     <col min="127" max="128" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="129" max="130" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129">
+    <row r="1" spans="1:130">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +699,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:129">
+    <row r="2" spans="1:130">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -730,7 +731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:129">
+    <row r="3" spans="1:130">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -843,7 +844,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:129">
+    <row r="4" spans="1:130">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -955,7 +956,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:129">
+    <row r="5" spans="1:130">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:129">
+    <row r="6" spans="1:130">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>-403</v>
       </c>
     </row>
-    <row r="7" spans="1:129">
+    <row r="7" spans="1:130">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="8" spans="1:129">
+    <row r="8" spans="1:130">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>-266</v>
       </c>
     </row>
-    <row r="10" spans="1:129">
+    <row r="10" spans="1:130">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:129">
+    <row r="11" spans="1:130">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>381.09999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:129">
+    <row r="13" spans="1:130">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:129">
+    <row r="14" spans="1:130">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:129" ht="42" customHeight="1">
+    <row r="15" spans="1:130" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1955,8 +1956,11 @@
       <c r="DY15" s="4">
         <v>40848</v>
       </c>
+      <c r="DZ15" s="4">
+        <v>40849</v>
+      </c>
     </row>
-    <row r="16" spans="1:129">
+    <row r="16" spans="1:130">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +2086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:128">
+    <row r="17" spans="1:130">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:128">
+    <row r="18" spans="1:130">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2351,8 +2355,14 @@
         <f>10.5+4.5+14+5.6+7.5</f>
         <v>42.1</v>
       </c>
+      <c r="DY18">
+        <v>8.9</v>
+      </c>
+      <c r="DZ18">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:128">
+    <row r="19" spans="1:130">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:128">
+    <row r="20" spans="1:130">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2469,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="21" spans="1:128">
+    <row r="21" spans="1:130">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2523,8 +2533,11 @@
       <c r="DT21">
         <v>8</v>
       </c>
+      <c r="DY21">
+        <v>82</v>
+      </c>
     </row>
-    <row r="25" spans="1:128">
+    <row r="25" spans="1:130">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2977,7 +2990,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="27" spans="1:128">
+    <row r="27" spans="1:130">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3015,7 +3028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:128">
+    <row r="28" spans="1:130">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3044,7 +3057,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:128">
+    <row r="29" spans="1:130">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3073,7 +3086,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:128">
+    <row r="30" spans="1:130">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3121,7 +3134,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:128">
+    <row r="32" spans="1:130">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-16周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/2---10月29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(直接-200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/2到10/29剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DZ48"/>
+  <dimension ref="A1:EB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DS7" workbookViewId="0">
-      <selection activeCell="DY15" sqref="DY15:DZ15"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BD8" sqref="BD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -619,7 +643,11 @@
     <col min="41" max="41" width="13.875" bestFit="1" customWidth="1"/>
     <col min="42" max="45" width="10.5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="10.5" customWidth="1"/>
-    <col min="47" max="53" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.75" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="10.5" customWidth="1"/>
     <col min="55" max="58" width="10.5" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
@@ -640,12 +668,12 @@
     <col min="111" max="117" width="11.625" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="11.625" customWidth="1"/>
     <col min="119" max="125" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="11.625" customWidth="1"/>
-    <col min="127" max="128" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="129" max="130" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="11.625" customWidth="1"/>
+    <col min="128" max="129" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="132" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130">
+    <row r="1" spans="1:132">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,8 +726,20 @@
       <c r="AR1" t="s">
         <v>48</v>
       </c>
+      <c r="AW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:130">
+    <row r="2" spans="1:132">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -731,7 +771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:130">
+    <row r="3" spans="1:132">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -843,8 +883,31 @@
         <f>AF3+AP3</f>
         <v>348</v>
       </c>
+      <c r="AW3">
+        <f>SUM(CQ16:DU16)</f>
+        <v>291</v>
+      </c>
+      <c r="AX3">
+        <f>AW3</f>
+        <v>291</v>
+      </c>
+      <c r="AY3">
+        <f>-AX10/6</f>
+        <v>-201.76666666666668</v>
+      </c>
+      <c r="AZ3">
+        <f>AX3+AY3</f>
+        <v>89.23333333333332</v>
+      </c>
+      <c r="BA3">
+        <v>89</v>
+      </c>
+      <c r="BC3">
+        <f>AR3+BA3</f>
+        <v>437</v>
+      </c>
     </row>
-    <row r="4" spans="1:130">
+    <row r="4" spans="1:132">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -955,8 +1018,31 @@
         <f t="shared" ref="AR4:AR8" si="13">AF4+AP4</f>
         <v>315</v>
       </c>
+      <c r="AW4">
+        <f>SUM(CQ17:DU17)</f>
+        <v>247.7</v>
+      </c>
+      <c r="AX4">
+        <f>AW4-200</f>
+        <v>47.699999999999989</v>
+      </c>
+      <c r="AY4">
+        <f>-AX10/6</f>
+        <v>-201.76666666666668</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" ref="AZ4:AZ8" si="14">AX4+AY4</f>
+        <v>-154.06666666666669</v>
+      </c>
+      <c r="BA4">
+        <v>-154</v>
+      </c>
+      <c r="BC4">
+        <f>AR4+BA4</f>
+        <v>161</v>
+      </c>
     </row>
-    <row r="5" spans="1:130">
+    <row r="5" spans="1:132">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1135,7 @@
         <v>-20.049999999999955</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AM8" si="14">AI5</f>
+        <f t="shared" ref="AM5:AM8" si="15">AI5</f>
         <v>237.10000000000002</v>
       </c>
       <c r="AN5">
@@ -1067,8 +1153,31 @@
         <f t="shared" si="13"/>
         <v>111</v>
       </c>
+      <c r="AW5">
+        <f>SUM(CQ18:DU18)</f>
+        <v>394.20000000000005</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" ref="AX4:AX8" si="16">AW5</f>
+        <v>394.20000000000005</v>
+      </c>
+      <c r="AY5">
+        <f>-AX10/6</f>
+        <v>-201.76666666666668</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="14"/>
+        <v>192.43333333333337</v>
+      </c>
+      <c r="BA5">
+        <v>192</v>
+      </c>
+      <c r="BC5">
+        <f>AR5+BA5</f>
+        <v>303</v>
+      </c>
     </row>
-    <row r="6" spans="1:130">
+    <row r="6" spans="1:132">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1160,7 +1269,7 @@
         <v>-147.64999999999998</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>109.5</v>
       </c>
       <c r="AN6">
@@ -1178,8 +1287,31 @@
         <f t="shared" si="13"/>
         <v>-403</v>
       </c>
+      <c r="AW6">
+        <f>SUM(CQ19:DU19)</f>
+        <v>208.60000000000002</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="16"/>
+        <v>208.60000000000002</v>
+      </c>
+      <c r="AY6">
+        <f>-AX10/6</f>
+        <v>-201.76666666666668</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="14"/>
+        <v>6.8333333333333428</v>
+      </c>
+      <c r="BA6">
+        <v>7</v>
+      </c>
+      <c r="BC6">
+        <f>AR6+BA6</f>
+        <v>-396</v>
+      </c>
     </row>
-    <row r="7" spans="1:130">
+    <row r="7" spans="1:132">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1406,7 @@
         <v>155.35000000000002</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>412.5</v>
       </c>
       <c r="AN7">
@@ -1292,8 +1424,31 @@
         <f t="shared" si="13"/>
         <v>-105</v>
       </c>
+      <c r="AW7">
+        <f>SUM(CQ20:DU20)</f>
+        <v>88.2</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="16"/>
+        <v>88.2</v>
+      </c>
+      <c r="AY7">
+        <f>-AX10/6</f>
+        <v>-201.76666666666668</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="14"/>
+        <v>-113.56666666666668</v>
+      </c>
+      <c r="BA7">
+        <v>-113</v>
+      </c>
+      <c r="BC7">
+        <f>AR7+BA7</f>
+        <v>-218</v>
+      </c>
     </row>
-    <row r="8" spans="1:130">
+    <row r="8" spans="1:132">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1540,7 @@
         <v>-33.649999999999977</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>223.5</v>
       </c>
       <c r="AN8">
@@ -1403,8 +1558,31 @@
         <f t="shared" si="13"/>
         <v>-266</v>
       </c>
+      <c r="AW8">
+        <f>SUM(CQ21:DU21)</f>
+        <v>180.9</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="16"/>
+        <v>180.9</v>
+      </c>
+      <c r="AY8">
+        <f>-AX10/6</f>
+        <v>-201.76666666666668</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="14"/>
+        <v>-20.866666666666674</v>
+      </c>
+      <c r="BA8">
+        <v>-21</v>
+      </c>
+      <c r="BC8">
+        <f>AR8+BA8</f>
+        <v>-287</v>
+      </c>
     </row>
-    <row r="10" spans="1:130">
+    <row r="10" spans="1:132">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1458,8 +1636,20 @@
         <f>SUM(AP3:AP8)</f>
         <v>0</v>
       </c>
+      <c r="AW10">
+        <f>SUM(AW3:AW8)</f>
+        <v>1410.6000000000001</v>
+      </c>
+      <c r="AX10">
+        <f>AW10-200</f>
+        <v>1210.6000000000001</v>
+      </c>
+      <c r="BA10">
+        <f>SUM(BA3:BA8)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:130">
+    <row r="11" spans="1:132">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1478,8 +1668,15 @@
         <f>AC10/6</f>
         <v>381.09999999999997</v>
       </c>
+      <c r="AW11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX11">
+        <f>AX10/6</f>
+        <v>201.76666666666668</v>
+      </c>
     </row>
-    <row r="13" spans="1:130">
+    <row r="13" spans="1:132">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1556,7 +1753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:130">
+    <row r="14" spans="1:132">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1602,11 +1799,11 @@
       <c r="DU14">
         <v>16</v>
       </c>
-      <c r="DW14">
+      <c r="DX14">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:130" ht="42" customHeight="1">
+    <row r="15" spans="1:132" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1947,20 +2144,24 @@
         <v>40845</v>
       </c>
       <c r="DV15" s="4"/>
-      <c r="DW15" s="4">
+      <c r="DW15" s="4"/>
+      <c r="DX15" s="4">
         <v>40846</v>
       </c>
-      <c r="DX15" s="4">
+      <c r="DY15" s="4">
         <v>40847</v>
       </c>
-      <c r="DY15" s="4">
+      <c r="DZ15" s="4">
         <v>40848</v>
       </c>
-      <c r="DZ15" s="4">
+      <c r="EA15" s="4">
         <v>40849</v>
       </c>
+      <c r="EB15" s="4">
+        <v>40850</v>
+      </c>
     </row>
-    <row r="16" spans="1:130">
+    <row r="16" spans="1:132">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2081,12 +2282,18 @@
       <c r="DO16">
         <v>24</v>
       </c>
-      <c r="DV16">
+      <c r="DU16">
         <f>21+63</f>
         <v>84</v>
       </c>
+      <c r="EA16">
+        <v>150</v>
+      </c>
+      <c r="EB16">
+        <v>50</v>
+      </c>
     </row>
-    <row r="17" spans="1:130">
+    <row r="17" spans="1:132">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2230,7 +2437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:130">
+    <row r="18" spans="1:132">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2351,18 +2558,18 @@
       <c r="DS18">
         <v>11</v>
       </c>
-      <c r="DW18">
+      <c r="DX18">
         <f>10.5+4.5+14+5.6+7.5</f>
         <v>42.1</v>
       </c>
-      <c r="DY18">
+      <c r="DZ18">
         <v>8.9</v>
       </c>
-      <c r="DZ18">
+      <c r="EA18">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:130">
+    <row r="19" spans="1:132">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2412,11 +2619,11 @@
       <c r="DU19">
         <v>22.3</v>
       </c>
-      <c r="DX19">
+      <c r="DY19">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:130">
+    <row r="20" spans="1:132">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2469,7 +2676,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="21" spans="1:130">
+    <row r="21" spans="1:132">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2533,11 +2740,11 @@
       <c r="DT21">
         <v>8</v>
       </c>
-      <c r="DY21">
+      <c r="DZ21">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:130">
+    <row r="25" spans="1:132">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2550,19 +2757,19 @@
         <v>45.7</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:H25" si="15">SUM(E16:E21)</f>
+        <f t="shared" ref="E25:H25" si="17">SUM(E16:E21)</f>
         <v>43.7</v>
       </c>
       <c r="F25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38.5</v>
       </c>
       <c r="G25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>174.8</v>
       </c>
       <c r="H25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>101.6</v>
       </c>
       <c r="I25">
@@ -2570,35 +2777,35 @@
         <v>70</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:U25" si="16">SUM(K16:K21)</f>
+        <f t="shared" ref="K25:U25" si="18">SUM(K16:K21)</f>
         <v>118.4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>55.9</v>
       </c>
       <c r="M25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>67.599999999999994</v>
       </c>
       <c r="N25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>54.4</v>
       </c>
       <c r="O25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>26.5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>95.2</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>53.8</v>
       </c>
       <c r="U25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>28.7</v>
       </c>
       <c r="V25">
@@ -2606,391 +2813,403 @@
         <v>132.80000000000001</v>
       </c>
       <c r="W25">
-        <f t="shared" ref="W25:CK25" si="17">SUM(W16:W23)</f>
+        <f t="shared" ref="W25:CK25" si="19">SUM(W16:W23)</f>
         <v>103.1</v>
       </c>
       <c r="X25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>274.7</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>43</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>67.5</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>208</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>112.2</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>163.6</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>71.7</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>25.5</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>32.5</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>178.5</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>88.4</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>128.69999999999999</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.3</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>62.3</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>82.2</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>41.1</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>78.900000000000006</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>47</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>72.2</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>34.9</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>45</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>126.2</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>128.6</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>118.6</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="BE25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
       <c r="BF25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>105.5</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>61.6</v>
       </c>
       <c r="BH25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44.5</v>
       </c>
       <c r="BI25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>46.5</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BK25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>67.8</v>
       </c>
       <c r="BL25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BM25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BN25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="BO25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>162</v>
       </c>
       <c r="BP25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BQ25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BS25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BT25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>125</v>
       </c>
       <c r="BU25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>29.6</v>
       </c>
       <c r="BV25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BW25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>51.3</v>
       </c>
       <c r="BX25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>255.5</v>
       </c>
       <c r="BY25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>21.5</v>
       </c>
       <c r="CA25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CB25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>102.1</v>
       </c>
       <c r="CC25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CD25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CE25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>47</v>
       </c>
       <c r="CF25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>51.5</v>
       </c>
       <c r="CH25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CI25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CJ25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="CK25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>11.5</v>
       </c>
       <c r="CL25">
-        <f t="shared" ref="CL25:DW25" si="18">SUM(CL16:CL23)</f>
+        <f t="shared" ref="CL25:EB25" si="20">SUM(CL16:CL23)</f>
         <v>23.2</v>
       </c>
       <c r="CM25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CN25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CO25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>94.4</v>
       </c>
       <c r="CP25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CQ25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CR25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>110.5</v>
       </c>
       <c r="CS25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>19.5</v>
       </c>
       <c r="CT25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>92.8</v>
       </c>
       <c r="CU25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="CV25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>69</v>
       </c>
       <c r="CW25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>47.7</v>
       </c>
       <c r="CY25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CZ25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>31.5</v>
       </c>
       <c r="DA25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DB25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DC25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DD25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>185</v>
       </c>
       <c r="DE25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>33.5</v>
       </c>
       <c r="DG25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>56.5</v>
       </c>
       <c r="DH25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>221.8</v>
       </c>
       <c r="DI25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DJ25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DK25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>69</v>
       </c>
       <c r="DL25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="DM25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>70.7</v>
       </c>
       <c r="DO25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="DP25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>23.5</v>
       </c>
       <c r="DQ25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>48.9</v>
       </c>
       <c r="DR25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>78.400000000000006</v>
       </c>
       <c r="DS25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="DT25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="DU25">
-        <f t="shared" si="18"/>
-        <v>22.3</v>
-      </c>
-      <c r="DV25">
-        <f t="shared" si="18"/>
-        <v>84</v>
-      </c>
-      <c r="DW25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>106.3</v>
+      </c>
+      <c r="DX25">
+        <f t="shared" si="20"/>
         <v>42.1</v>
       </c>
+      <c r="DY25">
+        <f t="shared" si="20"/>
+        <v>35</v>
+      </c>
+      <c r="DZ25">
+        <f t="shared" si="20"/>
+        <v>90.9</v>
+      </c>
+      <c r="EA25">
+        <f t="shared" si="20"/>
+        <v>182</v>
+      </c>
+      <c r="EB25">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="27" spans="1:130">
+    <row r="27" spans="1:132">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3028,7 +3247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:130">
+    <row r="28" spans="1:132">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3057,7 +3276,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:130">
+    <row r="29" spans="1:132">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3086,7 +3305,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:130">
+    <row r="30" spans="1:132">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3095,27 +3314,27 @@
         <v>80.116666666666674</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:H30" si="19">C28/6</f>
+        <f t="shared" ref="C30:H30" si="21">C28/6</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>78.63333333333334</v>
       </c>
       <c r="E30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>142.96666666666667</v>
       </c>
       <c r="I30" t="s">
@@ -3134,7 +3353,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:130">
+    <row r="32" spans="1:132">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3147,8 +3366,11 @@
       <c r="F32" t="s">
         <v>44</v>
       </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:10">
       <c r="B33">
         <f>SUM(B28:K28)</f>
         <v>2438.3000000000002</v>
@@ -3165,8 +3387,16 @@
         <f>F33-200</f>
         <v>1342.8999999999999</v>
       </c>
+      <c r="I33">
+        <f>SUM(CQ25:DU25)</f>
+        <v>1410.6000000000001</v>
+      </c>
+      <c r="J33">
+        <f>I33-200</f>
+        <v>1210.6000000000001</v>
+      </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3186,8 +3416,16 @@
         <f>G33/6</f>
         <v>223.81666666666663</v>
       </c>
+      <c r="I34">
+        <f>I33/6</f>
+        <v>235.10000000000002</v>
+      </c>
+      <c r="J34">
+        <f>J33/6</f>
+        <v>201.76666666666668</v>
+      </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:10">
       <c r="A48">
         <f>2011-1314</f>
         <v>697</v>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EB48"/>
+  <dimension ref="A1:EF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BD8" sqref="BD8"/>
+    <sheetView tabSelected="1" topLeftCell="EC12" workbookViewId="0">
+      <selection activeCell="EF19" sqref="EF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -670,10 +670,10 @@
     <col min="119" max="125" width="11.625" bestFit="1" customWidth="1"/>
     <col min="126" max="127" width="11.625" customWidth="1"/>
     <col min="128" max="129" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="130" max="132" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="136" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132">
+    <row r="1" spans="1:136">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:132">
+    <row r="2" spans="1:136">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -771,7 +771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:132">
+    <row r="3" spans="1:136">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -884,7 +884,7 @@
         <v>348</v>
       </c>
       <c r="AW3">
-        <f>SUM(CQ16:DU16)</f>
+        <f t="shared" ref="AW3:AW8" si="3">SUM(CQ16:DU16)</f>
         <v>291</v>
       </c>
       <c r="AX3">
@@ -903,11 +903,11 @@
         <v>89</v>
       </c>
       <c r="BC3">
-        <f>AR3+BA3</f>
+        <f t="shared" ref="BC3:BC8" si="4">AR3+BA3</f>
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:132">
+    <row r="4" spans="1:136">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -919,12 +919,12 @@
         <v>4006.2166666666672</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E7" si="3">C4-D4</f>
+        <f t="shared" ref="E4:E7" si="5">C4-D4</f>
         <v>-990.71666666666715</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G8" si="4">E4+F4</f>
+        <f t="shared" ref="G4:G8" si="6">E4+F4</f>
         <v>-990.71666666666715</v>
       </c>
       <c r="I4">
@@ -935,7 +935,7 @@
         <v>-158.75</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K8" si="5">G4+I4+J4</f>
+        <f t="shared" ref="K4:K8" si="7">G4+I4+J4</f>
         <v>-666.86666666666713</v>
       </c>
       <c r="L4">
@@ -946,11 +946,11 @@
         <v>666</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N8" si="6">L4+M4</f>
+        <f t="shared" ref="N4:N8" si="8">L4+M4</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S8" si="7">SUM(U17:AS17)</f>
+        <f t="shared" ref="S4:S8" si="9">SUM(U17:AS17)</f>
         <v>855.5999999999998</v>
       </c>
       <c r="V4">
@@ -958,7 +958,7 @@
         <v>84.699999999999989</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X8" si="8">SUM(S4:V4)</f>
+        <f t="shared" ref="X4:X8" si="10">SUM(S4:V4)</f>
         <v>940.29999999999973</v>
       </c>
       <c r="Y4">
@@ -966,7 +966,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z8" si="9">X4+Y4</f>
+        <f t="shared" ref="Z4:Z8" si="11">X4+Y4</f>
         <v>525.86666666666656</v>
       </c>
       <c r="AA4">
@@ -981,7 +981,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE8" si="10">SUM(AC4:AD4)</f>
+        <f t="shared" ref="AE4:AE8" si="12">SUM(AC4:AD4)</f>
         <v>359.19999999999976</v>
       </c>
       <c r="AF4">
@@ -996,7 +996,7 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK8" si="11">AI4+AJ4</f>
+        <f t="shared" ref="AK4:AK8" si="13">AI4+AJ4</f>
         <v>122.75000000000006</v>
       </c>
       <c r="AM4">
@@ -1008,18 +1008,18 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO8" si="12">AM4+AN4</f>
+        <f t="shared" ref="AO4:AO8" si="14">AM4+AN4</f>
         <v>-43.9166666666666</v>
       </c>
       <c r="AP4">
         <v>-44</v>
       </c>
       <c r="AR4">
-        <f t="shared" ref="AR4:AR8" si="13">AF4+AP4</f>
+        <f t="shared" ref="AR4:AR8" si="15">AF4+AP4</f>
         <v>315</v>
       </c>
       <c r="AW4">
-        <f>SUM(CQ17:DU17)</f>
+        <f t="shared" si="3"/>
         <v>247.7</v>
       </c>
       <c r="AX4">
@@ -1031,18 +1031,18 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ4">
-        <f t="shared" ref="AZ4:AZ8" si="14">AX4+AY4</f>
+        <f t="shared" ref="AZ4:AZ8" si="16">AX4+AY4</f>
         <v>-154.06666666666669</v>
       </c>
       <c r="BA4">
         <v>-154</v>
       </c>
       <c r="BC4">
-        <f>AR4+BA4</f>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:132">
+    <row r="5" spans="1:136">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1054,12 +1054,12 @@
         <v>4006.2166666666672</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-175.01666666666733</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-175.01666666666733</v>
       </c>
       <c r="I5">
@@ -1070,7 +1070,7 @@
         <v>-158.75</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-269.66666666666731</v>
       </c>
       <c r="L5">
@@ -1081,11 +1081,11 @@
         <v>270</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>443.49999999999994</v>
       </c>
       <c r="V5">
@@ -1093,7 +1093,7 @@
         <v>36</v>
       </c>
       <c r="X5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>479.49999999999994</v>
       </c>
       <c r="Y5">
@@ -1101,7 +1101,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>65.06666666666672</v>
       </c>
       <c r="AA5">
@@ -1116,7 +1116,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>98.399999999999977</v>
       </c>
       <c r="AF5">
@@ -1131,11 +1131,11 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-20.049999999999955</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AM8" si="15">AI5</f>
+        <f t="shared" ref="AM5:AM8" si="17">AI5</f>
         <v>237.10000000000002</v>
       </c>
       <c r="AN5">
@@ -1143,22 +1143,22 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13.283333333333388</v>
       </c>
       <c r="AP5">
         <v>13</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="AW5">
-        <f>SUM(CQ18:DU18)</f>
+        <f t="shared" si="3"/>
         <v>394.20000000000005</v>
       </c>
       <c r="AX5">
-        <f t="shared" ref="AX4:AX8" si="16">AW5</f>
+        <f t="shared" ref="AX5:AX8" si="18">AW5</f>
         <v>394.20000000000005</v>
       </c>
       <c r="AY5">
@@ -1166,18 +1166,18 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>192.43333333333337</v>
       </c>
       <c r="BA5">
         <v>192</v>
       </c>
       <c r="BC5">
-        <f>AR5+BA5</f>
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:132">
+    <row r="6" spans="1:136">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1189,12 +1189,12 @@
         <v>4006.2166666666672</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>358.28333333333285</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>358.28333333333285</v>
       </c>
       <c r="I6">
@@ -1205,7 +1205,7 @@
         <v>-158.75</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>225.63333333333287</v>
       </c>
       <c r="L6">
@@ -1215,11 +1215,11 @@
         <v>-225</v>
       </c>
       <c r="N6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>91.6</v>
       </c>
       <c r="V6">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>91.6</v>
       </c>
       <c r="Y6">
@@ -1235,7 +1235,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-322.83333333333326</v>
       </c>
       <c r="AA6">
@@ -1250,7 +1250,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-289.5</v>
       </c>
       <c r="AF6">
@@ -1265,11 +1265,11 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-147.64999999999998</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>109.5</v>
       </c>
       <c r="AN6">
@@ -1277,22 +1277,22 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-114.31666666666663</v>
       </c>
       <c r="AP6">
         <v>-114</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-403</v>
       </c>
       <c r="AW6">
-        <f>SUM(CQ19:DU19)</f>
+        <f t="shared" si="3"/>
         <v>208.60000000000002</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>208.60000000000002</v>
       </c>
       <c r="AY6">
@@ -1300,18 +1300,18 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.8333333333333428</v>
       </c>
       <c r="BA6">
         <v>7</v>
       </c>
       <c r="BC6">
-        <f>AR6+BA6</f>
+        <f t="shared" si="4"/>
         <v>-396</v>
       </c>
     </row>
-    <row r="7" spans="1:132">
+    <row r="7" spans="1:136">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>4006.2166666666672</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2817.8166666666671</v>
       </c>
       <c r="F7" s="2">
@@ -1352,11 +1352,11 @@
         <v>830</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="V7">
@@ -1364,7 +1364,7 @@
         <v>14.9</v>
       </c>
       <c r="X7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>86.9</v>
       </c>
       <c r="Y7">
@@ -1372,7 +1372,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-327.53333333333319</v>
       </c>
       <c r="AA7">
@@ -1387,7 +1387,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-294.19999999999993</v>
       </c>
       <c r="AF7">
@@ -1402,11 +1402,11 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>155.35000000000002</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.5</v>
       </c>
       <c r="AN7">
@@ -1414,22 +1414,22 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>188.68333333333337</v>
       </c>
       <c r="AP7">
         <v>189</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-105</v>
       </c>
       <c r="AW7">
-        <f>SUM(CQ20:DU20)</f>
+        <f t="shared" si="3"/>
         <v>88.2</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>88.2</v>
       </c>
       <c r="AY7">
@@ -1437,18 +1437,18 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-113.56666666666668</v>
       </c>
       <c r="BA7">
         <v>-113</v>
       </c>
       <c r="BC7">
-        <f>AR7+BA7</f>
+        <f t="shared" si="4"/>
         <v>-218</v>
       </c>
     </row>
-    <row r="8" spans="1:132">
+    <row r="8" spans="1:136">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198.78333333333285</v>
       </c>
       <c r="I8">
@@ -1476,7 +1476,7 @@
         <v>-158.75</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128.73333333333284</v>
       </c>
       <c r="L8">
@@ -1486,11 +1486,11 @@
         <v>-129</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>63.8</v>
       </c>
       <c r="V8">
@@ -1498,7 +1498,7 @@
         <v>51.2</v>
       </c>
       <c r="X8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="Y8">
@@ -1506,7 +1506,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-299.43333333333322</v>
       </c>
       <c r="AA8">
@@ -1521,7 +1521,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-266.09999999999997</v>
       </c>
       <c r="AF8">
@@ -1536,11 +1536,11 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-33.649999999999977</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>223.5</v>
       </c>
       <c r="AN8">
@@ -1548,22 +1548,22 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.31666666666663446</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-266</v>
       </c>
       <c r="AW8">
-        <f>SUM(CQ21:DU21)</f>
+        <f t="shared" si="3"/>
         <v>180.9</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>180.9</v>
       </c>
       <c r="AY8">
@@ -1571,18 +1571,18 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-20.866666666666674</v>
       </c>
       <c r="BA8">
         <v>-21</v>
       </c>
       <c r="BC8">
-        <f>AR8+BA8</f>
+        <f t="shared" si="4"/>
         <v>-287</v>
       </c>
     </row>
-    <row r="10" spans="1:132">
+    <row r="10" spans="1:136">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:132">
+    <row r="11" spans="1:136">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>201.76666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:132">
+    <row r="13" spans="1:136">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:132">
+    <row r="14" spans="1:136">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:132" ht="42" customHeight="1">
+    <row r="15" spans="1:136" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2160,8 +2160,20 @@
       <c r="EB15" s="4">
         <v>40850</v>
       </c>
+      <c r="EC15" s="4">
+        <v>40851</v>
+      </c>
+      <c r="ED15" s="4">
+        <v>40852</v>
+      </c>
+      <c r="EE15" s="4">
+        <v>40853</v>
+      </c>
+      <c r="EF15" s="4">
+        <v>40854</v>
+      </c>
     </row>
-    <row r="16" spans="1:132">
+    <row r="16" spans="1:136">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2292,8 +2304,11 @@
       <c r="EB16">
         <v>50</v>
       </c>
+      <c r="EF16">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" spans="1:132">
+    <row r="17" spans="1:136">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2437,7 +2452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:132">
+    <row r="18" spans="1:136">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2568,8 +2583,11 @@
       <c r="EA18">
         <v>32</v>
       </c>
+      <c r="EF18">
+        <v>3.4</v>
+      </c>
     </row>
-    <row r="19" spans="1:132">
+    <row r="19" spans="1:136">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2622,8 +2640,14 @@
       <c r="DY19">
         <v>35</v>
       </c>
+      <c r="ED19">
+        <v>461</v>
+      </c>
+      <c r="EE19">
+        <v>21</v>
+      </c>
     </row>
-    <row r="20" spans="1:132">
+    <row r="20" spans="1:136">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2675,8 +2699,14 @@
       <c r="DQ20">
         <v>29.7</v>
       </c>
+      <c r="EC20">
+        <v>13</v>
+      </c>
+      <c r="ED20">
+        <v>25</v>
+      </c>
     </row>
-    <row r="21" spans="1:132">
+    <row r="21" spans="1:136">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +2774,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:132">
+    <row r="25" spans="1:136">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2757,19 +2787,19 @@
         <v>45.7</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:H25" si="17">SUM(E16:E21)</f>
+        <f t="shared" ref="E25:H25" si="19">SUM(E16:E21)</f>
         <v>43.7</v>
       </c>
       <c r="F25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>38.5</v>
       </c>
       <c r="G25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>174.8</v>
       </c>
       <c r="H25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>101.6</v>
       </c>
       <c r="I25">
@@ -2777,35 +2807,35 @@
         <v>70</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:U25" si="18">SUM(K16:K21)</f>
+        <f t="shared" ref="K25:U25" si="20">SUM(K16:K21)</f>
         <v>118.4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>55.9</v>
       </c>
       <c r="M25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>67.599999999999994</v>
       </c>
       <c r="N25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>54.4</v>
       </c>
       <c r="O25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>26.5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>95.2</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>53.8</v>
       </c>
       <c r="U25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.7</v>
       </c>
       <c r="V25">
@@ -2813,403 +2843,403 @@
         <v>132.80000000000001</v>
       </c>
       <c r="W25">
-        <f t="shared" ref="W25:CK25" si="19">SUM(W16:W23)</f>
+        <f t="shared" ref="W25:CK25" si="21">SUM(W16:W23)</f>
         <v>103.1</v>
       </c>
       <c r="X25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>274.7</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>43</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>67.5</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>208</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>112.2</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>163.6</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>71.7</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25.5</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>32.5</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>178.5</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>88.4</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>128.69999999999999</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.3</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>62.3</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>82.2</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>41.1</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>78.900000000000006</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>72.2</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>34.9</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>45</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>126.2</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>128.6</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>62</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>118.6</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="BE25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
       <c r="BF25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>105.5</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>61.6</v>
       </c>
       <c r="BH25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>44.5</v>
       </c>
       <c r="BI25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>46.5</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BK25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>67.8</v>
       </c>
       <c r="BL25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BM25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BN25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="BO25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>162</v>
       </c>
       <c r="BP25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BQ25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BS25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>125</v>
       </c>
       <c r="BU25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>29.6</v>
       </c>
       <c r="BV25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BW25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>51.3</v>
       </c>
       <c r="BX25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>255.5</v>
       </c>
       <c r="BY25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21.5</v>
       </c>
       <c r="CA25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="CB25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>102.1</v>
       </c>
       <c r="CC25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="CD25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="CE25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="CF25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>51.5</v>
       </c>
       <c r="CH25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="CI25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="CJ25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>60</v>
       </c>
       <c r="CK25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11.5</v>
       </c>
       <c r="CL25">
-        <f t="shared" ref="CL25:EB25" si="20">SUM(CL16:CL23)</f>
+        <f t="shared" ref="CL25:EB25" si="22">SUM(CL16:CL23)</f>
         <v>23.2</v>
       </c>
       <c r="CM25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="CN25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="CO25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>94.4</v>
       </c>
       <c r="CP25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="CQ25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="CR25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>110.5</v>
       </c>
       <c r="CS25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.5</v>
       </c>
       <c r="CT25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>92.8</v>
       </c>
       <c r="CU25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>75</v>
       </c>
       <c r="CV25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
       <c r="CW25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>47.7</v>
       </c>
       <c r="CY25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="CZ25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>31.5</v>
       </c>
       <c r="DA25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="DB25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="DC25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="DD25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>185</v>
       </c>
       <c r="DE25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>33.5</v>
       </c>
       <c r="DG25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>56.5</v>
       </c>
       <c r="DH25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>221.8</v>
       </c>
       <c r="DI25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="DJ25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="DK25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
       <c r="DL25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="DM25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>70.7</v>
       </c>
       <c r="DO25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="DP25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23.5</v>
       </c>
       <c r="DQ25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>48.9</v>
       </c>
       <c r="DR25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>78.400000000000006</v>
       </c>
       <c r="DS25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="DT25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="DU25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>106.3</v>
       </c>
       <c r="DX25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>42.1</v>
       </c>
       <c r="DY25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="DZ25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>90.9</v>
       </c>
       <c r="EA25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>182</v>
       </c>
       <c r="EB25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:132">
+    <row r="27" spans="1:136">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3247,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:132">
+    <row r="28" spans="1:136">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3276,7 +3306,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:132">
+    <row r="29" spans="1:136">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3305,7 +3335,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:132">
+    <row r="30" spans="1:136">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3314,27 +3344,27 @@
         <v>80.116666666666674</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:H30" si="21">C28/6</f>
+        <f t="shared" ref="C30:H30" si="23">C28/6</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>78.63333333333334</v>
       </c>
       <c r="E30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>142.96666666666667</v>
       </c>
       <c r="I30" t="s">
@@ -3353,7 +3383,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:132">
+    <row r="32" spans="1:136">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF48"/>
+  <dimension ref="A1:EH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EC12" workbookViewId="0">
-      <selection activeCell="EF19" sqref="EF19"/>
+    <sheetView tabSelected="1" topLeftCell="DY12" workbookViewId="0">
+      <selection activeCell="EH21" sqref="EH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -670,10 +670,10 @@
     <col min="119" max="125" width="11.625" bestFit="1" customWidth="1"/>
     <col min="126" max="127" width="11.625" customWidth="1"/>
     <col min="128" max="129" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="130" max="136" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="138" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136">
+    <row r="1" spans="1:138">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:136">
+    <row r="2" spans="1:138">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -771,7 +771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:136">
+    <row r="3" spans="1:138">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -907,7 +907,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:136">
+    <row r="4" spans="1:138">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:136">
+    <row r="5" spans="1:138">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:136">
+    <row r="6" spans="1:138">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>-396</v>
       </c>
     </row>
-    <row r="7" spans="1:136">
+    <row r="7" spans="1:138">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>-218</v>
       </c>
     </row>
-    <row r="8" spans="1:136">
+    <row r="8" spans="1:138">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>-287</v>
       </c>
     </row>
-    <row r="10" spans="1:136">
+    <row r="10" spans="1:138">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:136">
+    <row r="11" spans="1:138">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>201.76666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:136">
+    <row r="13" spans="1:138">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:136">
+    <row r="14" spans="1:138">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:136" ht="42" customHeight="1">
+    <row r="15" spans="1:138" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2172,8 +2172,14 @@
       <c r="EF15" s="4">
         <v>40854</v>
       </c>
+      <c r="EG15" s="4">
+        <v>40855</v>
+      </c>
+      <c r="EH15" s="4">
+        <v>40856</v>
+      </c>
     </row>
-    <row r="16" spans="1:136">
+    <row r="16" spans="1:138">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2307,8 +2313,11 @@
       <c r="EF16">
         <v>26</v>
       </c>
+      <c r="EG16">
+        <v>16</v>
+      </c>
     </row>
-    <row r="17" spans="1:136">
+    <row r="17" spans="1:138">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2452,7 +2461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:136">
+    <row r="18" spans="1:138">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="19" spans="1:136">
+    <row r="19" spans="1:138">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2647,7 +2656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:136">
+    <row r="20" spans="1:138">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2705,8 +2714,11 @@
       <c r="ED20">
         <v>25</v>
       </c>
+      <c r="EH20">
+        <v>14.8</v>
+      </c>
     </row>
-    <row r="21" spans="1:136">
+    <row r="21" spans="1:138">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2774,7 +2786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:136">
+    <row r="25" spans="1:138">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3239,7 +3251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:136">
+    <row r="27" spans="1:138">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3277,7 +3289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:136">
+    <row r="28" spans="1:138">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3306,7 +3318,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:136">
+    <row r="29" spans="1:138">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3335,7 +3347,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:136">
+    <row r="30" spans="1:138">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3383,7 +3395,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:136">
+    <row r="32" spans="1:138">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EH48"/>
+  <dimension ref="A1:EM48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DY12" workbookViewId="0">
-      <selection activeCell="EH21" sqref="EH21"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="EL31" sqref="EL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -671,9 +671,10 @@
     <col min="126" max="127" width="11.625" customWidth="1"/>
     <col min="128" max="129" width="11.625" bestFit="1" customWidth="1"/>
     <col min="130" max="138" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="143" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138">
+    <row r="1" spans="1:143">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:138">
+    <row r="2" spans="1:143">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -771,7 +772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:138">
+    <row r="3" spans="1:143">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -907,7 +908,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:138">
+    <row r="4" spans="1:143">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:138">
+    <row r="5" spans="1:143">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:138">
+    <row r="6" spans="1:143">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>-396</v>
       </c>
     </row>
-    <row r="7" spans="1:138">
+    <row r="7" spans="1:143">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>-218</v>
       </c>
     </row>
-    <row r="8" spans="1:138">
+    <row r="8" spans="1:143">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>-287</v>
       </c>
     </row>
-    <row r="10" spans="1:138">
+    <row r="10" spans="1:143">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:138">
+    <row r="11" spans="1:143">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>201.76666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:138">
+    <row r="13" spans="1:143">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:138">
+    <row r="14" spans="1:143">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:138" ht="42" customHeight="1">
+    <row r="15" spans="1:143" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2178,8 +2179,23 @@
       <c r="EH15" s="4">
         <v>40856</v>
       </c>
+      <c r="EI15" s="4">
+        <v>40857</v>
+      </c>
+      <c r="EJ15" s="4">
+        <v>40858</v>
+      </c>
+      <c r="EK15" s="4">
+        <v>40859</v>
+      </c>
+      <c r="EL15" s="4">
+        <v>40860</v>
+      </c>
+      <c r="EM15" s="4">
+        <v>40861</v>
+      </c>
     </row>
-    <row r="16" spans="1:138">
+    <row r="16" spans="1:143">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2317,7 +2333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:138">
+    <row r="17" spans="1:143">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2460,8 +2476,11 @@
       <c r="DR17">
         <v>12</v>
       </c>
+      <c r="EK17">
+        <v>213.2</v>
+      </c>
     </row>
-    <row r="18" spans="1:138">
+    <row r="18" spans="1:143">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2595,8 +2614,12 @@
       <c r="EF18">
         <v>3.4</v>
       </c>
+      <c r="EI18">
+        <f>23.5+7.5+20</f>
+        <v>51</v>
+      </c>
     </row>
-    <row r="19" spans="1:138">
+    <row r="19" spans="1:143">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2655,8 +2678,11 @@
       <c r="EE19">
         <v>21</v>
       </c>
+      <c r="EL19">
+        <v>30.4</v>
+      </c>
     </row>
-    <row r="20" spans="1:138">
+    <row r="20" spans="1:143">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2717,8 +2743,14 @@
       <c r="EH20">
         <v>14.8</v>
       </c>
+      <c r="EK20">
+        <v>38</v>
+      </c>
+      <c r="EM20">
+        <v>57</v>
+      </c>
     </row>
-    <row r="21" spans="1:138">
+    <row r="21" spans="1:143">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2786,7 +2818,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:138">
+    <row r="25" spans="1:143">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3099,7 +3131,7 @@
         <v>11.5</v>
       </c>
       <c r="CL25">
-        <f t="shared" ref="CL25:EB25" si="22">SUM(CL16:CL23)</f>
+        <f t="shared" ref="CL25:EM25" si="22">SUM(CL16:CL23)</f>
         <v>23.2</v>
       </c>
       <c r="CM25">
@@ -3250,8 +3282,52 @@
         <f t="shared" si="22"/>
         <v>50</v>
       </c>
+      <c r="EC25">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="ED25">
+        <f t="shared" si="22"/>
+        <v>486</v>
+      </c>
+      <c r="EE25">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="EF25">
+        <f t="shared" si="22"/>
+        <v>29.4</v>
+      </c>
+      <c r="EG25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="EH25">
+        <f t="shared" si="22"/>
+        <v>14.8</v>
+      </c>
+      <c r="EI25">
+        <f t="shared" si="22"/>
+        <v>51</v>
+      </c>
+      <c r="EJ25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="EK25">
+        <f t="shared" si="22"/>
+        <v>251.2</v>
+      </c>
+      <c r="EL25">
+        <f t="shared" si="22"/>
+        <v>30.4</v>
+      </c>
+      <c r="EM25">
+        <f t="shared" si="22"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="27" spans="1:138">
+    <row r="27" spans="1:143">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3289,7 +3365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:138">
+    <row r="28" spans="1:143">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3318,7 +3394,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:138">
+    <row r="29" spans="1:143">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3347,7 +3423,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:138">
+    <row r="30" spans="1:143">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3395,7 +3471,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:138">
+    <row r="32" spans="1:143">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EM48"/>
+  <dimension ref="A1:EU48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="EL31" sqref="EL31"/>
+    <sheetView tabSelected="1" topLeftCell="EI1" workbookViewId="0">
+      <selection activeCell="EU19" sqref="EU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -671,10 +671,14 @@
     <col min="126" max="127" width="11.625" customWidth="1"/>
     <col min="128" max="129" width="11.625" bestFit="1" customWidth="1"/>
     <col min="130" max="138" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="139" max="143" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="139" max="141" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.625" customWidth="1"/>
+    <col min="143" max="149" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="11.625" customWidth="1"/>
+    <col min="151" max="151" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143">
+    <row r="1" spans="1:151">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:143">
+    <row r="2" spans="1:151">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -772,7 +776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:143">
+    <row r="3" spans="1:151">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -908,7 +912,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:143">
+    <row r="4" spans="1:151">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:143">
+    <row r="5" spans="1:151">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1182,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:143">
+    <row r="6" spans="1:151">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>-396</v>
       </c>
     </row>
-    <row r="7" spans="1:143">
+    <row r="7" spans="1:151">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>-218</v>
       </c>
     </row>
-    <row r="8" spans="1:143">
+    <row r="8" spans="1:151">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>-287</v>
       </c>
     </row>
-    <row r="10" spans="1:143">
+    <row r="10" spans="1:151">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:143">
+    <row r="11" spans="1:151">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>201.76666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:143">
+    <row r="13" spans="1:151">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:143">
+    <row r="14" spans="1:151">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:143" ht="42" customHeight="1">
+    <row r="15" spans="1:151" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2188,14 +2192,34 @@
       <c r="EK15" s="4">
         <v>40859</v>
       </c>
-      <c r="EL15" s="4">
+      <c r="EL15" s="4"/>
+      <c r="EM15" s="4">
         <v>40860</v>
       </c>
-      <c r="EM15" s="4">
+      <c r="EN15" s="4">
         <v>40861</v>
       </c>
+      <c r="EO15" s="4">
+        <v>40862</v>
+      </c>
+      <c r="EP15" s="4">
+        <v>40863</v>
+      </c>
+      <c r="EQ15" s="4">
+        <v>40864</v>
+      </c>
+      <c r="ER15" s="4">
+        <v>40865</v>
+      </c>
+      <c r="ES15" s="4">
+        <v>40866</v>
+      </c>
+      <c r="ET15" s="4"/>
+      <c r="EU15" s="4">
+        <v>40867</v>
+      </c>
     </row>
-    <row r="16" spans="1:143">
+    <row r="16" spans="1:151">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:143">
+    <row r="17" spans="1:151">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2480,7 +2504,7 @@
         <v>213.2</v>
       </c>
     </row>
-    <row r="18" spans="1:143">
+    <row r="18" spans="1:151">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2618,8 +2642,12 @@
         <f>23.5+7.5+20</f>
         <v>51</v>
       </c>
+      <c r="EU18">
+        <f>35.5+7+30</f>
+        <v>72.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:143">
+    <row r="19" spans="1:151">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2678,11 +2706,11 @@
       <c r="EE19">
         <v>21</v>
       </c>
-      <c r="EL19">
+      <c r="EM19">
         <v>30.4</v>
       </c>
     </row>
-    <row r="20" spans="1:143">
+    <row r="20" spans="1:151">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2746,11 +2774,18 @@
       <c r="EK20">
         <v>38</v>
       </c>
-      <c r="EM20">
+      <c r="EN20">
         <v>57</v>
       </c>
+      <c r="ER20">
+        <v>30.5</v>
+      </c>
+      <c r="EU20">
+        <f>145+16.2</f>
+        <v>161.19999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:143">
+    <row r="21" spans="1:151">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +2853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:143">
+    <row r="25" spans="1:151">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3131,7 +3166,7 @@
         <v>11.5</v>
       </c>
       <c r="CL25">
-        <f t="shared" ref="CL25:EM25" si="22">SUM(CL16:CL23)</f>
+        <f t="shared" ref="CL25:EN25" si="22">SUM(CL16:CL23)</f>
         <v>23.2</v>
       </c>
       <c r="CM25">
@@ -3318,16 +3353,16 @@
         <f t="shared" si="22"/>
         <v>251.2</v>
       </c>
-      <c r="EL25">
+      <c r="EM25">
         <f t="shared" si="22"/>
         <v>30.4</v>
       </c>
-      <c r="EM25">
+      <c r="EN25">
         <f t="shared" si="22"/>
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:143">
+    <row r="27" spans="1:151">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3365,7 +3400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:143">
+    <row r="28" spans="1:151">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3394,7 +3429,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:143">
+    <row r="29" spans="1:151">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3423,7 +3458,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:143">
+    <row r="30" spans="1:151">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3471,7 +3506,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:143">
+    <row r="32" spans="1:151">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EU48"/>
+  <dimension ref="A1:EW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EI1" workbookViewId="0">
-      <selection activeCell="EU19" sqref="EU19"/>
+    <sheetView tabSelected="1" topLeftCell="EM1" workbookViewId="0">
+      <selection activeCell="EO19" sqref="EO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -676,9 +676,10 @@
     <col min="143" max="149" width="11.625" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="11.625" customWidth="1"/>
     <col min="151" max="151" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151">
+    <row r="1" spans="1:153">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:151">
+    <row r="2" spans="1:153">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -776,7 +777,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:151">
+    <row r="3" spans="1:153">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -912,7 +913,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:151">
+    <row r="4" spans="1:153">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:151">
+    <row r="5" spans="1:153">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:151">
+    <row r="6" spans="1:153">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>-396</v>
       </c>
     </row>
-    <row r="7" spans="1:151">
+    <row r="7" spans="1:153">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>-218</v>
       </c>
     </row>
-    <row r="8" spans="1:151">
+    <row r="8" spans="1:153">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>-287</v>
       </c>
     </row>
-    <row r="10" spans="1:151">
+    <row r="10" spans="1:153">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:151">
+    <row r="11" spans="1:153">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>201.76666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:151">
+    <row r="13" spans="1:153">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:151">
+    <row r="14" spans="1:153">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:151" ht="42" customHeight="1">
+    <row r="15" spans="1:153" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2218,8 +2219,14 @@
       <c r="EU15" s="4">
         <v>40867</v>
       </c>
+      <c r="EV15" s="4">
+        <v>40868</v>
+      </c>
+      <c r="EW15" s="4">
+        <v>40869</v>
+      </c>
     </row>
-    <row r="16" spans="1:151">
+    <row r="16" spans="1:153">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:151">
+    <row r="17" spans="1:153">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>213.2</v>
       </c>
     </row>
-    <row r="18" spans="1:151">
+    <row r="18" spans="1:153">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2642,12 +2649,20 @@
         <f>23.5+7.5+20</f>
         <v>51</v>
       </c>
+      <c r="EO18">
+        <f>26.8+7.6</f>
+        <v>34.4</v>
+      </c>
       <c r="EU18">
         <f>35.5+7+30</f>
         <v>72.5</v>
       </c>
+      <c r="EW18">
+        <f>8+2.4+7.9+6.4</f>
+        <v>24.700000000000003</v>
+      </c>
     </row>
-    <row r="19" spans="1:151">
+    <row r="19" spans="1:153">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +2725,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="20" spans="1:151">
+    <row r="20" spans="1:153">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2785,7 +2800,7 @@
         <v>161.19999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:151">
+    <row r="21" spans="1:153">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2853,7 +2868,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:151">
+    <row r="25" spans="1:153">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3362,7 +3377,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:151">
+    <row r="27" spans="1:153">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3400,7 +3415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:151">
+    <row r="28" spans="1:153">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3429,7 +3444,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:151">
+    <row r="29" spans="1:153">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3458,7 +3473,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:151">
+    <row r="30" spans="1:153">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3506,7 +3521,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:151">
+    <row r="32" spans="1:153">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EW48"/>
+  <dimension ref="A1:FR48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EM1" workbookViewId="0">
-      <selection activeCell="EO19" sqref="EO19"/>
+    <sheetView tabSelected="1" topLeftCell="FD1" workbookViewId="0">
+      <selection activeCell="FP20" sqref="FP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -677,9 +677,12 @@
     <col min="150" max="150" width="11.625" customWidth="1"/>
     <col min="151" max="151" width="11.625" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="171" max="172" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:153">
+    <row r="1" spans="1:174">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:153">
+    <row r="2" spans="1:174">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -777,7 +780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:153">
+    <row r="3" spans="1:174">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -913,7 +916,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:153">
+    <row r="4" spans="1:174">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:153">
+    <row r="5" spans="1:174">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:153">
+    <row r="6" spans="1:174">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>-396</v>
       </c>
     </row>
-    <row r="7" spans="1:153">
+    <row r="7" spans="1:174">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>-218</v>
       </c>
     </row>
-    <row r="8" spans="1:153">
+    <row r="8" spans="1:174">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>-287</v>
       </c>
     </row>
-    <row r="10" spans="1:153">
+    <row r="10" spans="1:174">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:153">
+    <row r="11" spans="1:174">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>201.76666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:153">
+    <row r="13" spans="1:174">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:153">
+    <row r="14" spans="1:174">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:153" ht="42" customHeight="1">
+    <row r="15" spans="1:174" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2225,8 +2228,71 @@
       <c r="EW15" s="4">
         <v>40869</v>
       </c>
+      <c r="EX15" s="4">
+        <v>40870</v>
+      </c>
+      <c r="EY15" s="4">
+        <v>40871</v>
+      </c>
+      <c r="EZ15" s="4">
+        <v>40872</v>
+      </c>
+      <c r="FA15" s="4">
+        <v>40873</v>
+      </c>
+      <c r="FB15" s="4">
+        <v>40874</v>
+      </c>
+      <c r="FC15" s="4">
+        <v>40875</v>
+      </c>
+      <c r="FD15" s="4">
+        <v>40876</v>
+      </c>
+      <c r="FE15" s="4">
+        <v>40877</v>
+      </c>
+      <c r="FF15" s="4">
+        <v>40878</v>
+      </c>
+      <c r="FG15" s="4">
+        <v>40879</v>
+      </c>
+      <c r="FH15" s="4">
+        <v>40880</v>
+      </c>
+      <c r="FI15" s="4">
+        <v>40881</v>
+      </c>
+      <c r="FJ15" s="4">
+        <v>40882</v>
+      </c>
+      <c r="FK15" s="4">
+        <v>40883</v>
+      </c>
+      <c r="FL15" s="4">
+        <v>40884</v>
+      </c>
+      <c r="FM15" s="4">
+        <v>40885</v>
+      </c>
+      <c r="FN15" s="4">
+        <v>40886</v>
+      </c>
+      <c r="FO15" s="4">
+        <v>40887</v>
+      </c>
+      <c r="FP15" s="4">
+        <v>40888</v>
+      </c>
+      <c r="FQ15" s="4">
+        <v>40889</v>
+      </c>
+      <c r="FR15" s="4">
+        <v>40890</v>
+      </c>
     </row>
-    <row r="16" spans="1:153">
+    <row r="16" spans="1:174">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2364,7 +2430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:153">
+    <row r="17" spans="1:172">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2511,7 +2577,7 @@
         <v>213.2</v>
       </c>
     </row>
-    <row r="18" spans="1:153">
+    <row r="18" spans="1:172">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2662,7 +2728,7 @@
         <v>24.700000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:153">
+    <row r="19" spans="1:172">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2791,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="20" spans="1:153">
+    <row r="20" spans="1:172">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2799,8 +2865,15 @@
         <f>145+16.2</f>
         <v>161.19999999999999</v>
       </c>
+      <c r="FH20">
+        <f>97.66+18</f>
+        <v>115.66</v>
+      </c>
+      <c r="FP20">
+        <v>41.2</v>
+      </c>
     </row>
-    <row r="21" spans="1:153">
+    <row r="21" spans="1:172">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2867,8 +2940,11 @@
       <c r="DZ21">
         <v>82</v>
       </c>
+      <c r="FH21">
+        <v>27</v>
+      </c>
     </row>
-    <row r="25" spans="1:153">
+    <row r="25" spans="1:172">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3377,7 +3453,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:153">
+    <row r="27" spans="1:172">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3415,7 +3491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:153">
+    <row r="28" spans="1:172">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3444,7 +3520,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:153">
+    <row r="29" spans="1:172">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3473,7 +3549,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:153">
+    <row r="30" spans="1:172">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3521,7 +3597,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:153">
+    <row r="32" spans="1:172">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -10,6 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -612,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FR48"/>
+  <dimension ref="A1:FV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FD1" workbookViewId="0">
-      <selection activeCell="FP20" sqref="FP20"/>
+    <sheetView tabSelected="1" topLeftCell="FO1" workbookViewId="0">
+      <selection activeCell="FV18" sqref="FV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -682,7 +684,7 @@
     <col min="174" max="174" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:174">
+    <row r="1" spans="1:178">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:174">
+    <row r="2" spans="1:178">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -780,7 +782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:174">
+    <row r="3" spans="1:178">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -916,7 +918,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:174">
+    <row r="4" spans="1:178">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:174">
+    <row r="5" spans="1:178">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:174">
+    <row r="6" spans="1:178">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>-396</v>
       </c>
     </row>
-    <row r="7" spans="1:174">
+    <row r="7" spans="1:178">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>-218</v>
       </c>
     </row>
-    <row r="8" spans="1:174">
+    <row r="8" spans="1:178">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>-287</v>
       </c>
     </row>
-    <row r="10" spans="1:174">
+    <row r="10" spans="1:178">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:174">
+    <row r="11" spans="1:178">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>201.76666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:174">
+    <row r="13" spans="1:178">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:174">
+    <row r="14" spans="1:178">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1812,7 +1814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:174" ht="42" customHeight="1">
+    <row r="15" spans="1:178" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2291,8 +2293,11 @@
       <c r="FR15" s="4">
         <v>40890</v>
       </c>
+      <c r="FV15" s="5">
+        <v>40945</v>
+      </c>
     </row>
-    <row r="16" spans="1:174">
+    <row r="16" spans="1:178">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:172">
+    <row r="17" spans="1:178">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>213.2</v>
       </c>
     </row>
-    <row r="18" spans="1:172">
+    <row r="18" spans="1:178">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2727,8 +2732,11 @@
         <f>8+2.4+7.9+6.4</f>
         <v>24.700000000000003</v>
       </c>
+      <c r="FV18">
+        <v>258.3</v>
+      </c>
     </row>
-    <row r="19" spans="1:172">
+    <row r="19" spans="1:178">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2799,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="20" spans="1:172">
+    <row r="20" spans="1:178">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2873,7 +2881,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="21" spans="1:172">
+    <row r="21" spans="1:178">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:172">
+    <row r="25" spans="1:178">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3453,7 +3461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:172">
+    <row r="27" spans="1:178">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3491,7 +3499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:172">
+    <row r="28" spans="1:178">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:172">
+    <row r="29" spans="1:178">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3549,7 +3557,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:172">
+    <row r="30" spans="1:178">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3597,7 +3605,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:172">
+    <row r="32" spans="1:178">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3718,4 +3726,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,14 @@
   </si>
   <si>
     <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>air_rice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FO1" workbookViewId="0">
-      <selection activeCell="FV18" sqref="FV18"/>
+    <sheetView tabSelected="1" topLeftCell="FN1" workbookViewId="0">
+      <selection activeCell="FV13" sqref="FV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -680,8 +688,8 @@
     <col min="151" max="151" width="11.625" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="11.625" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="171" max="172" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="171" max="174" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178">
@@ -1813,6 +1821,12 @@
       <c r="DX14">
         <v>17</v>
       </c>
+      <c r="FT14" t="s">
+        <v>56</v>
+      </c>
+      <c r="FV14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:178" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
@@ -2293,6 +2307,9 @@
       <c r="FR15" s="4">
         <v>40890</v>
       </c>
+      <c r="FT15" s="4">
+        <v>40909.1</v>
+      </c>
       <c r="FV15" s="5">
         <v>40945</v>
       </c>
@@ -2580,6 +2597,12 @@
       </c>
       <c r="EK17">
         <v>213.2</v>
+      </c>
+      <c r="FT17">
+        <v>195</v>
+      </c>
+      <c r="FV17">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:178">

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>air_rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/30---3/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总剩余</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FV48"/>
+  <dimension ref="A1:FX48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FN1" workbookViewId="0">
-      <selection activeCell="FV13" sqref="FV13"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BL5" sqref="BL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -692,7 +704,7 @@
     <col min="176" max="176" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178">
+    <row r="1" spans="1:180">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,8 +769,11 @@
       <c r="BC1" t="s">
         <v>55</v>
       </c>
+      <c r="BF1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:178">
+    <row r="2" spans="1:180">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -789,8 +804,14 @@
       <c r="AM2" t="s">
         <v>47</v>
       </c>
+      <c r="BI2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:178">
+    <row r="3" spans="1:180">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -925,8 +946,24 @@
         <f t="shared" ref="BC3:BC8" si="4">AR3+BA3</f>
         <v>437</v>
       </c>
+      <c r="BF3">
+        <f>SUM(DX16:FX16)</f>
+        <v>242</v>
+      </c>
+      <c r="BG3">
+        <f>-BG10</f>
+        <v>-383.87666666666672</v>
+      </c>
+      <c r="BI3">
+        <f>BF3+BG3</f>
+        <v>-141.87666666666672</v>
+      </c>
+      <c r="BK3">
+        <f>BC3+BI3</f>
+        <v>295.12333333333328</v>
+      </c>
     </row>
-    <row r="4" spans="1:178">
+    <row r="4" spans="1:180">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1097,24 @@
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
+      <c r="BF4">
+        <f>SUM(DX17:FX17)</f>
+        <v>468.2</v>
+      </c>
+      <c r="BG4">
+        <f>-BG10</f>
+        <v>-383.87666666666672</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" ref="BI4:BI8" si="17">BF4+BG4</f>
+        <v>84.323333333333267</v>
+      </c>
+      <c r="BK4">
+        <f t="shared" ref="BK4:BK8" si="18">BC4+BI4</f>
+        <v>245.32333333333327</v>
+      </c>
     </row>
-    <row r="5" spans="1:178">
+    <row r="5" spans="1:180">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1207,7 @@
         <v>-20.049999999999955</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AM8" si="17">AI5</f>
+        <f t="shared" ref="AM5:AM8" si="19">AI5</f>
         <v>237.10000000000002</v>
       </c>
       <c r="AN5">
@@ -1177,7 +1230,7 @@
         <v>394.20000000000005</v>
       </c>
       <c r="AX5">
-        <f t="shared" ref="AX5:AX8" si="18">AW5</f>
+        <f t="shared" ref="AX5:AX8" si="20">AW5</f>
         <v>394.20000000000005</v>
       </c>
       <c r="AY5">
@@ -1195,8 +1248,24 @@
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
+      <c r="BF5">
+        <f>SUM(DX18:FX18)</f>
+        <v>527.29999999999995</v>
+      </c>
+      <c r="BG5">
+        <f>-BG10</f>
+        <v>-383.87666666666672</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" si="17"/>
+        <v>143.42333333333323</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" si="18"/>
+        <v>446.42333333333323</v>
+      </c>
     </row>
-    <row r="6" spans="1:178">
+    <row r="6" spans="1:180">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1357,7 @@
         <v>-147.64999999999998</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>109.5</v>
       </c>
       <c r="AN6">
@@ -1311,7 +1380,7 @@
         <v>208.60000000000002</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>208.60000000000002</v>
       </c>
       <c r="AY6">
@@ -1329,8 +1398,24 @@
         <f t="shared" si="4"/>
         <v>-396</v>
       </c>
+      <c r="BF6">
+        <f>SUM(DX19:FX19)</f>
+        <v>547.4</v>
+      </c>
+      <c r="BG6">
+        <f>-BG10</f>
+        <v>-383.87666666666672</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" si="17"/>
+        <v>163.52333333333326</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" si="18"/>
+        <v>-232.47666666666674</v>
+      </c>
     </row>
-    <row r="7" spans="1:178">
+    <row r="7" spans="1:180">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1425,7 +1510,7 @@
         <v>155.35000000000002</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>412.5</v>
       </c>
       <c r="AN7">
@@ -1448,7 +1533,7 @@
         <v>88.2</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>88.2</v>
       </c>
       <c r="AY7">
@@ -1466,8 +1551,24 @@
         <f t="shared" si="4"/>
         <v>-218</v>
       </c>
+      <c r="BF7">
+        <f>SUM(DX20:FX20)</f>
+        <v>409.35999999999996</v>
+      </c>
+      <c r="BG7">
+        <f>-BG10</f>
+        <v>-383.87666666666672</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="17"/>
+        <v>25.483333333333235</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" si="18"/>
+        <v>-192.51666666666677</v>
+      </c>
     </row>
-    <row r="8" spans="1:178">
+    <row r="8" spans="1:180">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1660,7 @@
         <v>-33.649999999999977</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>223.5</v>
       </c>
       <c r="AN8">
@@ -1582,7 +1683,7 @@
         <v>180.9</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>180.9</v>
       </c>
       <c r="AY8">
@@ -1600,8 +1701,24 @@
         <f t="shared" si="4"/>
         <v>-287</v>
       </c>
+      <c r="BF8">
+        <f>SUM(DX21:FX21)</f>
+        <v>109</v>
+      </c>
+      <c r="BG8">
+        <f>-BG10</f>
+        <v>-383.87666666666672</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="17"/>
+        <v>-274.87666666666672</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" si="18"/>
+        <v>-561.87666666666678</v>
+      </c>
     </row>
-    <row r="10" spans="1:178">
+    <row r="10" spans="1:180">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1667,8 +1784,16 @@
         <f>SUM(BA3:BA8)</f>
         <v>0</v>
       </c>
+      <c r="BF10">
+        <f>SUM(BF3:BF8)</f>
+        <v>2303.2600000000002</v>
+      </c>
+      <c r="BG10">
+        <f>BF10/6</f>
+        <v>383.87666666666672</v>
+      </c>
     </row>
-    <row r="11" spans="1:178">
+    <row r="11" spans="1:180">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1695,7 +1820,7 @@
         <v>201.76666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:178">
+    <row r="13" spans="1:180">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1772,7 +1897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:178">
+    <row r="14" spans="1:180">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:178" ht="42" customHeight="1">
+    <row r="15" spans="1:180" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2313,8 +2438,14 @@
       <c r="FV15" s="5">
         <v>40945</v>
       </c>
+      <c r="FW15" s="5">
+        <v>40946</v>
+      </c>
+      <c r="FX15" s="5">
+        <v>40971</v>
+      </c>
     </row>
-    <row r="16" spans="1:178">
+    <row r="16" spans="1:180">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2452,7 +2583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:178">
+    <row r="17" spans="1:180">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +2736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:178">
+    <row r="18" spans="1:180">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +2890,7 @@
         <v>258.3</v>
       </c>
     </row>
-    <row r="19" spans="1:178">
+    <row r="19" spans="1:180">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +2953,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="20" spans="1:178">
+    <row r="20" spans="1:180">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2903,8 +3034,11 @@
       <c r="FP20">
         <v>41.2</v>
       </c>
+      <c r="FX20">
+        <v>-87</v>
+      </c>
     </row>
-    <row r="21" spans="1:178">
+    <row r="21" spans="1:180">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2975,7 +3109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:178">
+    <row r="25" spans="1:180">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2988,19 +3122,19 @@
         <v>45.7</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:H25" si="19">SUM(E16:E21)</f>
+        <f t="shared" ref="E25:H25" si="21">SUM(E16:E21)</f>
         <v>43.7</v>
       </c>
       <c r="F25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>38.5</v>
       </c>
       <c r="G25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>174.8</v>
       </c>
       <c r="H25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>101.6</v>
       </c>
       <c r="I25">
@@ -3008,35 +3142,35 @@
         <v>70</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:U25" si="20">SUM(K16:K21)</f>
+        <f t="shared" ref="K25:U25" si="22">SUM(K16:K21)</f>
         <v>118.4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>55.9</v>
       </c>
       <c r="M25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>67.599999999999994</v>
       </c>
       <c r="N25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>54.4</v>
       </c>
       <c r="O25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>26.5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>95.2</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>53.8</v>
       </c>
       <c r="U25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28.7</v>
       </c>
       <c r="V25">
@@ -3044,447 +3178,447 @@
         <v>132.80000000000001</v>
       </c>
       <c r="W25">
-        <f t="shared" ref="W25:CK25" si="21">SUM(W16:W23)</f>
+        <f t="shared" ref="W25:CK25" si="23">SUM(W16:W23)</f>
         <v>103.1</v>
       </c>
       <c r="X25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>274.7</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>67.5</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>208</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>112.2</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>163.6</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>71.7</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>25.5</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>32.5</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>44</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>178.5</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>88.4</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>128.69999999999999</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.3</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>62.3</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>82.2</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>41.1</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>78.900000000000006</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>47</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>72.2</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>34.9</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>126.2</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>128.6</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>62</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>118.6</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="BE25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
       <c r="BF25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>105.5</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>61.6</v>
       </c>
       <c r="BH25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>44.5</v>
       </c>
       <c r="BI25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>46.5</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BK25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>67.8</v>
       </c>
       <c r="BL25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BM25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BN25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="BO25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>162</v>
       </c>
       <c r="BP25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BQ25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BS25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BT25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>125</v>
       </c>
       <c r="BU25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>29.6</v>
       </c>
       <c r="BV25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BW25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>51.3</v>
       </c>
       <c r="BX25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>255.5</v>
       </c>
       <c r="BY25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>21.5</v>
       </c>
       <c r="CA25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>102.1</v>
       </c>
       <c r="CC25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CD25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CE25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>47</v>
       </c>
       <c r="CF25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>51.5</v>
       </c>
       <c r="CH25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CI25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CJ25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="CK25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>11.5</v>
       </c>
       <c r="CL25">
-        <f t="shared" ref="CL25:EN25" si="22">SUM(CL16:CL23)</f>
+        <f t="shared" ref="CL25:EN25" si="24">SUM(CL16:CL23)</f>
         <v>23.2</v>
       </c>
       <c r="CM25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CN25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CO25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>94.4</v>
       </c>
       <c r="CP25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CQ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CR25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>110.5</v>
       </c>
       <c r="CS25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>19.5</v>
       </c>
       <c r="CT25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>92.8</v>
       </c>
       <c r="CU25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="CV25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="CW25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>47.7</v>
       </c>
       <c r="CY25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CZ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>31.5</v>
       </c>
       <c r="DA25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="DB25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="DC25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="DD25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>185</v>
       </c>
       <c r="DE25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>33.5</v>
       </c>
       <c r="DG25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>56.5</v>
       </c>
       <c r="DH25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>221.8</v>
       </c>
       <c r="DI25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="DJ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="DK25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="DL25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="DM25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>70.7</v>
       </c>
       <c r="DO25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="DP25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>23.5</v>
       </c>
       <c r="DQ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>48.9</v>
       </c>
       <c r="DR25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>78.400000000000006</v>
       </c>
       <c r="DS25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="DT25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="DU25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>106.3</v>
       </c>
       <c r="DX25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>42.1</v>
       </c>
       <c r="DY25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>35</v>
       </c>
       <c r="DZ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>90.9</v>
       </c>
       <c r="EA25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>182</v>
       </c>
       <c r="EB25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="EC25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="ED25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>486</v>
       </c>
       <c r="EE25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="EF25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>29.4</v>
       </c>
       <c r="EG25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="EH25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>14.8</v>
       </c>
       <c r="EI25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>51</v>
       </c>
       <c r="EJ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="EK25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>251.2</v>
       </c>
       <c r="EM25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>30.4</v>
       </c>
       <c r="EN25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:178">
+    <row r="27" spans="1:180">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3522,7 +3656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:178">
+    <row r="28" spans="1:180">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3551,7 +3685,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="29" spans="1:178">
+    <row r="29" spans="1:180">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3580,7 +3714,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="30" spans="1:178">
+    <row r="30" spans="1:180">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3589,27 +3723,27 @@
         <v>80.116666666666674</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:H30" si="23">C28/6</f>
+        <f t="shared" ref="C30:H30" si="25">C28/6</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>78.63333333333334</v>
       </c>
       <c r="E30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>142.96666666666667</v>
       </c>
       <c r="I30" t="s">
@@ -3628,7 +3762,7 @@
         <v>85.983333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:178">
+    <row r="32" spans="1:180">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FX48"/>
+  <dimension ref="A1:FY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BL5" sqref="BL5"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BN8" sqref="BN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -704,7 +704,7 @@
     <col min="176" max="176" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:180">
+    <row r="1" spans="1:181">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:180">
+    <row r="2" spans="1:181">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -811,7 +811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:180">
+    <row r="3" spans="1:181">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -947,23 +947,23 @@
         <v>437</v>
       </c>
       <c r="BF3">
-        <f>SUM(DX16:FX16)</f>
+        <f t="shared" ref="BF3:BF8" si="5">SUM(DX16:FX16)</f>
         <v>242</v>
       </c>
       <c r="BG3">
         <f>-BG10</f>
-        <v>-383.87666666666672</v>
+        <v>-408.21000000000004</v>
       </c>
       <c r="BI3">
         <f>BF3+BG3</f>
-        <v>-141.87666666666672</v>
+        <v>-166.21000000000004</v>
       </c>
       <c r="BK3">
         <f>BC3+BI3</f>
-        <v>295.12333333333328</v>
+        <v>270.78999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:180">
+    <row r="4" spans="1:181">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -975,12 +975,12 @@
         <v>4006.2166666666672</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E7" si="5">C4-D4</f>
+        <f t="shared" ref="E4:E7" si="6">C4-D4</f>
         <v>-990.71666666666715</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G8" si="6">E4+F4</f>
+        <f t="shared" ref="G4:G8" si="7">E4+F4</f>
         <v>-990.71666666666715</v>
       </c>
       <c r="I4">
@@ -991,7 +991,7 @@
         <v>-158.75</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K8" si="7">G4+I4+J4</f>
+        <f t="shared" ref="K4:K8" si="8">G4+I4+J4</f>
         <v>-666.86666666666713</v>
       </c>
       <c r="L4">
@@ -1002,11 +1002,11 @@
         <v>666</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N8" si="8">L4+M4</f>
+        <f t="shared" ref="N4:N8" si="9">L4+M4</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S8" si="9">SUM(U17:AS17)</f>
+        <f t="shared" ref="S4:S8" si="10">SUM(U17:AS17)</f>
         <v>855.5999999999998</v>
       </c>
       <c r="V4">
@@ -1014,7 +1014,7 @@
         <v>84.699999999999989</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X8" si="10">SUM(S4:V4)</f>
+        <f t="shared" ref="X4:X8" si="11">SUM(S4:V4)</f>
         <v>940.29999999999973</v>
       </c>
       <c r="Y4">
@@ -1022,7 +1022,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z8" si="11">X4+Y4</f>
+        <f t="shared" ref="Z4:Z8" si="12">X4+Y4</f>
         <v>525.86666666666656</v>
       </c>
       <c r="AA4">
@@ -1037,7 +1037,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE8" si="12">SUM(AC4:AD4)</f>
+        <f t="shared" ref="AE4:AE8" si="13">SUM(AC4:AD4)</f>
         <v>359.19999999999976</v>
       </c>
       <c r="AF4">
@@ -1052,7 +1052,7 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK8" si="13">AI4+AJ4</f>
+        <f t="shared" ref="AK4:AK8" si="14">AI4+AJ4</f>
         <v>122.75000000000006</v>
       </c>
       <c r="AM4">
@@ -1064,14 +1064,14 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO8" si="14">AM4+AN4</f>
+        <f t="shared" ref="AO4:AO8" si="15">AM4+AN4</f>
         <v>-43.9166666666666</v>
       </c>
       <c r="AP4">
         <v>-44</v>
       </c>
       <c r="AR4">
-        <f t="shared" ref="AR4:AR8" si="15">AF4+AP4</f>
+        <f t="shared" ref="AR4:AR8" si="16">AF4+AP4</f>
         <v>315</v>
       </c>
       <c r="AW4">
@@ -1087,7 +1087,7 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ4">
-        <f t="shared" ref="AZ4:AZ8" si="16">AX4+AY4</f>
+        <f t="shared" ref="AZ4:AZ8" si="17">AX4+AY4</f>
         <v>-154.06666666666669</v>
       </c>
       <c r="BA4">
@@ -1098,23 +1098,23 @@
         <v>161</v>
       </c>
       <c r="BF4">
-        <f>SUM(DX17:FX17)</f>
+        <f t="shared" si="5"/>
         <v>468.2</v>
       </c>
       <c r="BG4">
         <f>-BG10</f>
-        <v>-383.87666666666672</v>
+        <v>-408.21000000000004</v>
       </c>
       <c r="BI4">
-        <f t="shared" ref="BI4:BI8" si="17">BF4+BG4</f>
-        <v>84.323333333333267</v>
+        <f t="shared" ref="BI4:BI8" si="18">BF4+BG4</f>
+        <v>59.989999999999952</v>
       </c>
       <c r="BK4">
-        <f t="shared" ref="BK4:BK8" si="18">BC4+BI4</f>
-        <v>245.32333333333327</v>
+        <f t="shared" ref="BK4:BK8" si="19">BC4+BI4</f>
+        <v>220.98999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:180">
+    <row r="5" spans="1:181">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1126,12 +1126,12 @@
         <v>4006.2166666666672</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-175.01666666666733</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-175.01666666666733</v>
       </c>
       <c r="I5">
@@ -1142,7 +1142,7 @@
         <v>-158.75</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-269.66666666666731</v>
       </c>
       <c r="L5">
@@ -1153,11 +1153,11 @@
         <v>270</v>
       </c>
       <c r="N5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>443.49999999999994</v>
       </c>
       <c r="V5">
@@ -1165,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="X5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>479.49999999999994</v>
       </c>
       <c r="Y5">
@@ -1173,7 +1173,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>65.06666666666672</v>
       </c>
       <c r="AA5">
@@ -1188,7 +1188,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>98.399999999999977</v>
       </c>
       <c r="AF5">
@@ -1203,11 +1203,11 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-20.049999999999955</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AM8" si="19">AI5</f>
+        <f t="shared" ref="AM5:AM8" si="20">AI5</f>
         <v>237.10000000000002</v>
       </c>
       <c r="AN5">
@@ -1215,14 +1215,14 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.283333333333388</v>
       </c>
       <c r="AP5">
         <v>13</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>111</v>
       </c>
       <c r="AW5">
@@ -1230,7 +1230,7 @@
         <v>394.20000000000005</v>
       </c>
       <c r="AX5">
-        <f t="shared" ref="AX5:AX8" si="20">AW5</f>
+        <f t="shared" ref="AX5:AX8" si="21">AW5</f>
         <v>394.20000000000005</v>
       </c>
       <c r="AY5">
@@ -1238,7 +1238,7 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>192.43333333333337</v>
       </c>
       <c r="BA5">
@@ -1249,23 +1249,23 @@
         <v>303</v>
       </c>
       <c r="BF5">
-        <f>SUM(DX18:FX18)</f>
+        <f t="shared" si="5"/>
         <v>527.29999999999995</v>
       </c>
       <c r="BG5">
         <f>-BG10</f>
-        <v>-383.87666666666672</v>
+        <v>-408.21000000000004</v>
       </c>
       <c r="BI5">
-        <f t="shared" si="17"/>
-        <v>143.42333333333323</v>
+        <f t="shared" si="18"/>
+        <v>119.08999999999992</v>
       </c>
       <c r="BK5">
-        <f t="shared" si="18"/>
-        <v>446.42333333333323</v>
+        <f t="shared" si="19"/>
+        <v>422.08999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:180">
+    <row r="6" spans="1:181">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1277,12 +1277,12 @@
         <v>4006.2166666666672</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>358.28333333333285</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>358.28333333333285</v>
       </c>
       <c r="I6">
@@ -1293,7 +1293,7 @@
         <v>-158.75</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>225.63333333333287</v>
       </c>
       <c r="L6">
@@ -1303,11 +1303,11 @@
         <v>-225</v>
       </c>
       <c r="N6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>91.6</v>
       </c>
       <c r="V6">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>91.6</v>
       </c>
       <c r="Y6">
@@ -1323,7 +1323,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-322.83333333333326</v>
       </c>
       <c r="AA6">
@@ -1338,7 +1338,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-289.5</v>
       </c>
       <c r="AF6">
@@ -1353,11 +1353,11 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-147.64999999999998</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>109.5</v>
       </c>
       <c r="AN6">
@@ -1365,14 +1365,14 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-114.31666666666663</v>
       </c>
       <c r="AP6">
         <v>-114</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-403</v>
       </c>
       <c r="AW6">
@@ -1380,7 +1380,7 @@
         <v>208.60000000000002</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>208.60000000000002</v>
       </c>
       <c r="AY6">
@@ -1388,7 +1388,7 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.8333333333333428</v>
       </c>
       <c r="BA6">
@@ -1399,23 +1399,23 @@
         <v>-396</v>
       </c>
       <c r="BF6">
-        <f>SUM(DX19:FX19)</f>
+        <f t="shared" si="5"/>
         <v>547.4</v>
       </c>
       <c r="BG6">
         <f>-BG10</f>
-        <v>-383.87666666666672</v>
+        <v>-408.21000000000004</v>
       </c>
       <c r="BI6">
-        <f t="shared" si="17"/>
-        <v>163.52333333333326</v>
+        <f t="shared" si="18"/>
+        <v>139.18999999999994</v>
       </c>
       <c r="BK6">
-        <f t="shared" si="18"/>
-        <v>-232.47666666666674</v>
+        <f t="shared" si="19"/>
+        <v>-256.81000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:180">
+    <row r="7" spans="1:181">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>4006.2166666666672</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2817.8166666666671</v>
       </c>
       <c r="F7" s="2">
@@ -1456,11 +1456,11 @@
         <v>830</v>
       </c>
       <c r="N7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="V7">
@@ -1468,7 +1468,7 @@
         <v>14.9</v>
       </c>
       <c r="X7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.9</v>
       </c>
       <c r="Y7">
@@ -1476,7 +1476,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-327.53333333333319</v>
       </c>
       <c r="AA7">
@@ -1491,7 +1491,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-294.19999999999993</v>
       </c>
       <c r="AF7">
@@ -1506,11 +1506,11 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>155.35000000000002</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>412.5</v>
       </c>
       <c r="AN7">
@@ -1518,14 +1518,14 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>188.68333333333337</v>
       </c>
       <c r="AP7">
         <v>189</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-105</v>
       </c>
       <c r="AW7">
@@ -1533,7 +1533,7 @@
         <v>88.2</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>88.2</v>
       </c>
       <c r="AY7">
@@ -1541,7 +1541,7 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-113.56666666666668</v>
       </c>
       <c r="BA7">
@@ -1552,23 +1552,23 @@
         <v>-218</v>
       </c>
       <c r="BF7">
-        <f>SUM(DX20:FX20)</f>
+        <f t="shared" si="5"/>
         <v>409.35999999999996</v>
       </c>
       <c r="BG7">
         <f>-BG10</f>
-        <v>-383.87666666666672</v>
+        <v>-408.21000000000004</v>
       </c>
       <c r="BI7">
-        <f t="shared" si="17"/>
-        <v>25.483333333333235</v>
+        <f t="shared" si="18"/>
+        <v>1.1499999999999204</v>
       </c>
       <c r="BK7">
-        <f t="shared" si="18"/>
-        <v>-192.51666666666677</v>
+        <f t="shared" si="19"/>
+        <v>-216.85000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:180">
+    <row r="8" spans="1:181">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>198.78333333333285</v>
       </c>
       <c r="I8">
@@ -1596,7 +1596,7 @@
         <v>-158.75</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>128.73333333333284</v>
       </c>
       <c r="L8">
@@ -1606,11 +1606,11 @@
         <v>-129</v>
       </c>
       <c r="N8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63.8</v>
       </c>
       <c r="V8">
@@ -1618,7 +1618,7 @@
         <v>51.2</v>
       </c>
       <c r="X8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
       <c r="Y8">
@@ -1626,7 +1626,7 @@
         <v>-414.43333333333322</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-299.43333333333322</v>
       </c>
       <c r="AA8">
@@ -1641,7 +1641,7 @@
         <v>-381.09999999999997</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-266.09999999999997</v>
       </c>
       <c r="AF8">
@@ -1656,11 +1656,11 @@
         <v>-257.14999999999998</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-33.649999999999977</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>223.5</v>
       </c>
       <c r="AN8">
@@ -1668,14 +1668,14 @@
         <v>-223.81666666666663</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.31666666666663446</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-266</v>
       </c>
       <c r="AW8">
@@ -1683,7 +1683,7 @@
         <v>180.9</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>180.9</v>
       </c>
       <c r="AY8">
@@ -1691,7 +1691,7 @@
         <v>-201.76666666666668</v>
       </c>
       <c r="AZ8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-20.866666666666674</v>
       </c>
       <c r="BA8">
@@ -1703,22 +1703,22 @@
       </c>
       <c r="BF8">
         <f>SUM(DX21:FX21)</f>
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="BG8">
         <f>-BG10</f>
-        <v>-383.87666666666672</v>
+        <v>-408.21000000000004</v>
       </c>
       <c r="BI8">
-        <f t="shared" si="17"/>
-        <v>-274.87666666666672</v>
+        <f t="shared" si="18"/>
+        <v>-153.21000000000004</v>
       </c>
       <c r="BK8">
-        <f t="shared" si="18"/>
-        <v>-561.87666666666678</v>
+        <f t="shared" si="19"/>
+        <v>-440.21000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:180">
+    <row r="10" spans="1:181">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1786,14 +1786,14 @@
       </c>
       <c r="BF10">
         <f>SUM(BF3:BF8)</f>
-        <v>2303.2600000000002</v>
+        <v>2449.2600000000002</v>
       </c>
       <c r="BG10">
         <f>BF10/6</f>
-        <v>383.87666666666672</v>
+        <v>408.21000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:180">
+    <row r="11" spans="1:181">
       <c r="A11" s="5">
         <v>40754</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>201.76666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:180">
+    <row r="13" spans="1:181">
       <c r="F13">
         <v>3</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:180">
+    <row r="14" spans="1:181">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:180" ht="42" customHeight="1">
+    <row r="15" spans="1:181" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2444,8 +2444,11 @@
       <c r="FX15" s="5">
         <v>40971</v>
       </c>
+      <c r="FY15" s="5">
+        <v>40972</v>
+      </c>
     </row>
-    <row r="16" spans="1:180">
+    <row r="16" spans="1:181">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3108,6 +3111,9 @@
       <c r="FH21">
         <v>27</v>
       </c>
+      <c r="FX21">
+        <v>146</v>
+      </c>
     </row>
     <row r="25" spans="1:180">
       <c r="A25" t="s">
@@ -3122,19 +3128,19 @@
         <v>45.7</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:H25" si="21">SUM(E16:E21)</f>
+        <f t="shared" ref="E25:H25" si="22">SUM(E16:E21)</f>
         <v>43.7</v>
       </c>
       <c r="F25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>38.5</v>
       </c>
       <c r="G25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>174.8</v>
       </c>
       <c r="H25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>101.6</v>
       </c>
       <c r="I25">
@@ -3142,35 +3148,35 @@
         <v>70</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:U25" si="22">SUM(K16:K21)</f>
+        <f t="shared" ref="K25:U25" si="23">SUM(K16:K21)</f>
         <v>118.4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>55.9</v>
       </c>
       <c r="M25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>67.599999999999994</v>
       </c>
       <c r="N25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>54.4</v>
       </c>
       <c r="O25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>26.5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>95.2</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>53.8</v>
       </c>
       <c r="U25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28.7</v>
       </c>
       <c r="V25">
@@ -3178,443 +3184,443 @@
         <v>132.80000000000001</v>
       </c>
       <c r="W25">
-        <f t="shared" ref="W25:CK25" si="23">SUM(W16:W23)</f>
+        <f t="shared" ref="W25:CK25" si="24">SUM(W16:W23)</f>
         <v>103.1</v>
       </c>
       <c r="X25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>274.7</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>43</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>67.5</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>208</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>112.2</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>163.6</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>71.7</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25.5</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>32.5</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>44</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>178.5</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>88.4</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>128.69999999999999</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.3</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>62.3</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>82.2</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>41.1</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>78.900000000000006</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>47</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>72.2</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>34.9</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>126.2</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>128.6</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>62</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>118.6</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="BE25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>42</v>
       </c>
       <c r="BF25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>105.5</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>61.6</v>
       </c>
       <c r="BH25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>44.5</v>
       </c>
       <c r="BI25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46.5</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BK25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>67.8</v>
       </c>
       <c r="BL25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BM25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BN25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="BO25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>162</v>
       </c>
       <c r="BP25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BQ25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BS25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BT25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>125</v>
       </c>
       <c r="BU25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>29.6</v>
       </c>
       <c r="BV25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BW25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>51.3</v>
       </c>
       <c r="BX25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>255.5</v>
       </c>
       <c r="BY25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>21.5</v>
       </c>
       <c r="CA25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CB25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>102.1</v>
       </c>
       <c r="CC25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CE25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>47</v>
       </c>
       <c r="CF25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>51.5</v>
       </c>
       <c r="CH25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CI25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CJ25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="CK25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.5</v>
       </c>
       <c r="CL25">
-        <f t="shared" ref="CL25:EN25" si="24">SUM(CL16:CL23)</f>
+        <f t="shared" ref="CL25:EN25" si="25">SUM(CL16:CL23)</f>
         <v>23.2</v>
       </c>
       <c r="CM25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CN25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CO25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>94.4</v>
       </c>
       <c r="CP25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CQ25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CR25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>110.5</v>
       </c>
       <c r="CS25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>19.5</v>
       </c>
       <c r="CT25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>92.8</v>
       </c>
       <c r="CU25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="CV25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>69</v>
       </c>
       <c r="CW25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>47.7</v>
       </c>
       <c r="CY25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CZ25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>31.5</v>
       </c>
       <c r="DA25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DB25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DC25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DD25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>185</v>
       </c>
       <c r="DE25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>33.5</v>
       </c>
       <c r="DG25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>56.5</v>
       </c>
       <c r="DH25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>221.8</v>
       </c>
       <c r="DI25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DJ25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DK25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>69</v>
       </c>
       <c r="DL25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="DM25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>70.7</v>
       </c>
       <c r="DO25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="DP25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.5</v>
       </c>
       <c r="DQ25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>48.9</v>
       </c>
       <c r="DR25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>78.400000000000006</v>
       </c>
       <c r="DS25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="DT25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="DU25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>106.3</v>
       </c>
       <c r="DX25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>42.1</v>
       </c>
       <c r="DY25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>35</v>
       </c>
       <c r="DZ25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>90.9</v>
       </c>
       <c r="EA25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>182</v>
       </c>
       <c r="EB25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="EC25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="ED25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>486</v>
       </c>
       <c r="EE25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="EF25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>29.4</v>
       </c>
       <c r="EG25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="EH25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14.8</v>
       </c>
       <c r="EI25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>51</v>
       </c>
       <c r="EJ25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="EK25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>251.2</v>
       </c>
       <c r="EM25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>30.4</v>
       </c>
       <c r="EN25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>57</v>
       </c>
     </row>
@@ -3723,27 +3729,27 @@
         <v>80.116666666666674</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:H30" si="25">C28/6</f>
+        <f t="shared" ref="C30:H30" si="26">C28/6</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>78.63333333333334</v>
       </c>
       <c r="E30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>142.96666666666667</v>
       </c>
       <c r="I30" t="s">

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="10530" windowHeight="4935"/>
@@ -13,12 +13,12 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,34 @@
   </si>
   <si>
     <t>总剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water And elc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BN8" sqref="BN8"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BM11" sqref="BM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -804,11 +832,29 @@
       <c r="AM2" t="s">
         <v>47</v>
       </c>
+      <c r="BG2" t="s">
+        <v>59</v>
+      </c>
       <c r="BI2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BK2" t="s">
         <v>60</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:181">
@@ -947,20 +993,40 @@
         <v>437</v>
       </c>
       <c r="BF3">
-        <f t="shared" ref="BF3:BF8" si="5">SUM(DX16:FX16)</f>
+        <f t="shared" ref="BF3:BF7" si="5">SUM(DX16:FX16)</f>
         <v>242</v>
       </c>
       <c r="BG3">
         <f>-BG10</f>
-        <v>-408.21000000000004</v>
+        <v>-457.54333333333335</v>
       </c>
       <c r="BI3">
         <f>BF3+BG3</f>
-        <v>-166.21000000000004</v>
+        <v>-215.54333333333335</v>
       </c>
       <c r="BK3">
         <f>BC3+BI3</f>
-        <v>270.78999999999996</v>
+        <v>221.45666666666665</v>
+      </c>
+      <c r="BM3">
+        <v>221</v>
+      </c>
+      <c r="BS3">
+        <v>1000</v>
+      </c>
+      <c r="BT3">
+        <v>206</v>
+      </c>
+      <c r="BU3">
+        <v>90</v>
+      </c>
+      <c r="BV3">
+        <f>BS3+BT3+BU3</f>
+        <v>1296</v>
+      </c>
+      <c r="BW3">
+        <f>BV3/6</f>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:181">
@@ -1103,15 +1169,18 @@
       </c>
       <c r="BG4">
         <f>-BG10</f>
-        <v>-408.21000000000004</v>
+        <v>-457.54333333333335</v>
       </c>
       <c r="BI4">
         <f t="shared" ref="BI4:BI8" si="18">BF4+BG4</f>
-        <v>59.989999999999952</v>
+        <v>10.656666666666638</v>
       </c>
       <c r="BK4">
         <f t="shared" ref="BK4:BK8" si="19">BC4+BI4</f>
-        <v>220.98999999999995</v>
+        <v>171.65666666666664</v>
+      </c>
+      <c r="BM4">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:181">
@@ -1254,15 +1323,18 @@
       </c>
       <c r="BG5">
         <f>-BG10</f>
-        <v>-408.21000000000004</v>
+        <v>-457.54333333333335</v>
       </c>
       <c r="BI5">
         <f t="shared" si="18"/>
-        <v>119.08999999999992</v>
+        <v>69.756666666666604</v>
       </c>
       <c r="BK5">
         <f t="shared" si="19"/>
-        <v>422.08999999999992</v>
+        <v>372.7566666666666</v>
+      </c>
+      <c r="BM5">
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:181">
@@ -1404,15 +1476,18 @@
       </c>
       <c r="BG6">
         <f>-BG10</f>
-        <v>-408.21000000000004</v>
+        <v>-457.54333333333335</v>
       </c>
       <c r="BI6">
         <f t="shared" si="18"/>
-        <v>139.18999999999994</v>
+        <v>89.856666666666626</v>
       </c>
       <c r="BK6">
         <f t="shared" si="19"/>
-        <v>-256.81000000000006</v>
+        <v>-306.14333333333337</v>
+      </c>
+      <c r="BM6">
+        <v>-306</v>
       </c>
     </row>
     <row r="7" spans="1:181">
@@ -1557,15 +1632,18 @@
       </c>
       <c r="BG7">
         <f>-BG10</f>
-        <v>-408.21000000000004</v>
+        <v>-457.54333333333335</v>
       </c>
       <c r="BI7">
         <f t="shared" si="18"/>
-        <v>1.1499999999999204</v>
+        <v>-48.183333333333394</v>
       </c>
       <c r="BK7">
         <f t="shared" si="19"/>
-        <v>-216.85000000000008</v>
+        <v>-266.18333333333339</v>
+      </c>
+      <c r="BM7">
+        <v>-266</v>
       </c>
     </row>
     <row r="8" spans="1:181">
@@ -1703,19 +1781,22 @@
       </c>
       <c r="BF8">
         <f>SUM(DX21:FX21)</f>
-        <v>255</v>
+        <v>551</v>
       </c>
       <c r="BG8">
         <f>-BG10</f>
-        <v>-408.21000000000004</v>
+        <v>-457.54333333333335</v>
       </c>
       <c r="BI8">
         <f t="shared" si="18"/>
-        <v>-153.21000000000004</v>
+        <v>93.456666666666649</v>
       </c>
       <c r="BK8">
         <f t="shared" si="19"/>
-        <v>-440.21000000000004</v>
+        <v>-193.54333333333335</v>
+      </c>
+      <c r="BM8">
+        <v>-194</v>
       </c>
     </row>
     <row r="10" spans="1:181">
@@ -1786,11 +1867,15 @@
       </c>
       <c r="BF10">
         <f>SUM(BF3:BF8)</f>
-        <v>2449.2600000000002</v>
+        <v>2745.26</v>
       </c>
       <c r="BG10">
         <f>BF10/6</f>
-        <v>408.21000000000004</v>
+        <v>457.54333333333335</v>
+      </c>
+      <c r="BM10">
+        <f>SUM(BM3:BM8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:181">
@@ -1952,6 +2037,9 @@
       <c r="FV14" t="s">
         <v>57</v>
       </c>
+      <c r="FX14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:181" ht="42" customHeight="1">
       <c r="A15" s="3" t="s">
@@ -3112,7 +3200,8 @@
         <v>27</v>
       </c>
       <c r="FX21">
-        <v>146</v>
+        <f>296+146</f>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:180">

--- a/common/fair.xlsx
+++ b/common/fair.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,30 @@
   </si>
   <si>
     <t>water And elc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛书宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿朋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐莹莹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晶晶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +333,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -346,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +399,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BM11" sqref="BM11"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BQ3" sqref="BQ2:BQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1011,6 +1046,10 @@
       <c r="BM3">
         <v>221</v>
       </c>
+      <c r="BP3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ3" s="7"/>
       <c r="BS3">
         <v>1000</v>
       </c>
@@ -1182,6 +1221,10 @@
       <c r="BM4">
         <v>172</v>
       </c>
+      <c r="BP4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ4" s="7"/>
     </row>
     <row r="5" spans="1:181">
       <c r="A5" t="s">
@@ -1336,6 +1379,10 @@
       <c r="BM5">
         <v>373</v>
       </c>
+      <c r="BP5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ5" s="7"/>
     </row>
     <row r="6" spans="1:181">
       <c r="A6" t="s">
@@ -1489,6 +1536,10 @@
       <c r="BM6">
         <v>-306</v>
       </c>
+      <c r="BP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ6" s="7"/>
     </row>
     <row r="7" spans="1:181">
       <c r="A7" t="s">
@@ -1645,6 +1696,10 @@
       <c r="BM7">
         <v>-266</v>
       </c>
+      <c r="BP7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ7" s="7"/>
     </row>
     <row r="8" spans="1:181">
       <c r="A8" t="s">
@@ -1798,6 +1853,10 @@
       <c r="BM8">
         <v>-194</v>
       </c>
+      <c r="BP8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ8" s="7"/>
     </row>
     <row r="10" spans="1:181">
       <c r="A10" t="s">
